--- a/CETAF_DEVELOPMENTS/elasticsearch/cetaf_website_elastic_search/MARS_ES_DATA_FLOW/parse_mars/mars_model_20210412_mapping.xlsx
+++ b/CETAF_DEVELOPMENTS/elasticsearch/cetaf_website_elastic_search/MARS_ES_DATA_FLOW/parse_mars/mars_model_20210412_mapping.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" firstSheet="9" activeTab="12"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="1_root_institution.txt" sheetId="1" r:id="rId1"/>
@@ -12,26 +12,30 @@
     <sheet name="3_cetaf_passport_collections" sheetId="3" r:id="rId3"/>
     <sheet name="4_collection_management_system" sheetId="4" r:id="rId4"/>
     <sheet name="5_collection_management_system" sheetId="5" r:id="rId5"/>
-    <sheet name="6_cetaf_passport_facilities" sheetId="6" r:id="rId6"/>
-    <sheet name="7_cetaf_passport_facility" sheetId="7" r:id="rId7"/>
-    <sheet name="8_cetaf_passport_equipment" sheetId="8" r:id="rId8"/>
-    <sheet name="9_cetaf_passport_exhibition" sheetId="9" r:id="rId9"/>
-    <sheet name="10_cetaf_passport_research" sheetId="10" r:id="rId10"/>
-    <sheet name="11_cetaf_passport_research_fie" sheetId="11" r:id="rId11"/>
-    <sheet name="12_cetaf_passport_publication" sheetId="12" r:id="rId12"/>
-    <sheet name="13_cetaf_passport_taxonomic_ex" sheetId="13" r:id="rId13"/>
-    <sheet name="14_staff_member" sheetId="14" r:id="rId14"/>
-    <sheet name="15_cetaf_passport_public_relat" sheetId="15" r:id="rId15"/>
-    <sheet name="16_cetaf_passport_education_an" sheetId="16" r:id="rId16"/>
-    <sheet name="17_cetaf_passport_interests_in" sheetId="17" r:id="rId17"/>
-    <sheet name="18_cetaf_passport_finances" sheetId="18" r:id="rId18"/>
+    <sheet name="6a_create_facility" sheetId="19" r:id="rId6"/>
+    <sheet name="6b_cetaf_passport_facilities" sheetId="6" r:id="rId7"/>
+    <sheet name="7_cetaf_passport_facility" sheetId="7" r:id="rId8"/>
+    <sheet name="8_cetaf_passport_equipment" sheetId="8" r:id="rId9"/>
+    <sheet name="9_cetaf_passport_exhibition" sheetId="9" r:id="rId10"/>
+    <sheet name="10_cetaf_passport_research" sheetId="10" r:id="rId11"/>
+    <sheet name="11_cetaf_passport_research_fie" sheetId="11" r:id="rId12"/>
+    <sheet name="12_cetaf_passport_publication" sheetId="12" r:id="rId13"/>
+    <sheet name="13_cetaf_passport_taxonomic_ex" sheetId="13" r:id="rId14"/>
+    <sheet name="14_staff_member" sheetId="14" r:id="rId15"/>
+    <sheet name="15_cetaf_passport_public_relat" sheetId="15" r:id="rId16"/>
+    <sheet name="16_cetaf_passport_education_an" sheetId="16" r:id="rId17"/>
+    <sheet name="17_cetaf_passport_interests_in" sheetId="17" r:id="rId18"/>
+    <sheet name="18_cetaf_passport_finances" sheetId="18" r:id="rId19"/>
+    <sheet name="19_expert_dir" sheetId="20" r:id="rId20"/>
+    <sheet name="20_expert_edu" sheetId="21" r:id="rId21"/>
+    <sheet name="21_expert_publi" sheetId="22" r:id="rId22"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2508" uniqueCount="1031">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2618" uniqueCount="1009">
   <si>
     <t>field</t>
   </si>
@@ -1152,75 +1156,36 @@
     <t>http://collections.naturalsciences.be/cpb/nh-collections/countries/belgium/be-rbins/3-cetaf-passport-facilities</t>
   </si>
   <si>
-    <t>http://collections.naturalsciences.be/cpb/nh-collections/countries/belgium/be-rbins/3-cetaf-passport-facilities?@id</t>
-  </si>
-  <si>
     <t>cetaf_passport_facilities</t>
   </si>
   <si>
-    <t>http://collections.naturalsciences.be/cpb/nh-collections/countries/belgium/be-rbins/3-cetaf-passport-facilities?@type</t>
-  </si>
-  <si>
     <t>2019-09-12T10:34:03+02:00</t>
   </si>
   <si>
-    <t>http://collections.naturalsciences.be/cpb/nh-collections/countries/belgium/be-rbins/3-cetaf-passport-facilities?created</t>
-  </si>
-  <si>
-    <t>http://collections.naturalsciences.be/cpb/nh-collections/countries/belgium/be-rbins/3-cetaf-passport-facilities?description</t>
-  </si>
-  <si>
     <t>exhibitions</t>
   </si>
   <si>
-    <t>http://collections.naturalsciences.be/cpb/nh-collections/countries/belgium/be-rbins/3-cetaf-passport-facilities?exhibitions</t>
-  </si>
-  <si>
     <t>11</t>
   </si>
   <si>
-    <t>http://collections.naturalsciences.be/cpb/nh-collections/countries/belgium/be-rbins/3-cetaf-passport-facilities?items_total</t>
-  </si>
-  <si>
     <t>list_of_facilities</t>
   </si>
   <si>
-    <t>http://collections.naturalsciences.be/cpb/nh-collections/countries/belgium/be-rbins/3-cetaf-passport-facilities?list_of_facilities</t>
-  </si>
-  <si>
     <t>list_of_laboratories</t>
   </si>
   <si>
-    <t>http://collections.naturalsciences.be/cpb/nh-collections/countries/belgium/be-rbins/3-cetaf-passport-facilities?list_of_laboratories</t>
-  </si>
-  <si>
     <t>2020-11-10T10:25:54+01:00</t>
   </si>
   <si>
-    <t>http://collections.naturalsciences.be/cpb/nh-collections/countries/belgium/be-rbins/3-cetaf-passport-facilities?modified</t>
-  </si>
-  <si>
     <t>other_scientific_facilities</t>
   </si>
   <si>
-    <t>http://collections.naturalsciences.be/cpb/nh-collections/countries/belgium/be-rbins/3-cetaf-passport-facilities?other_scientific_facilities</t>
-  </si>
-  <si>
-    <t>http://collections.naturalsciences.be/cpb/nh-collections/countries/belgium/be-rbins/3-cetaf-passport-facilities?review_state</t>
-  </si>
-  <si>
     <t>BE-RBINS Passport Facilities</t>
   </si>
   <si>
-    <t>http://collections.naturalsciences.be/cpb/nh-collections/countries/belgium/be-rbins/3-cetaf-passport-facilities?title</t>
-  </si>
-  <si>
     <t>34955e8547da41999c8e7bdb40297ab1</t>
   </si>
   <si>
-    <t>http://collections.naturalsciences.be/cpb/nh-collections/countries/belgium/be-rbins/3-cetaf-passport-facilities?uid</t>
-  </si>
-  <si>
     <t>http://collections.naturalsciences.be/cpb/nh-collections/countries/belgium/be-rbins/3-cetaf-passport-facilities/be-rbins-imagery-platform</t>
   </si>
   <si>
@@ -2415,141 +2380,72 @@
     <t>http://collections.naturalsciences.be/cpb/nh-collections/countries/belgium/be-rbins/7-cetaf-passport-education-and-training</t>
   </si>
   <si>
-    <t>http://collections.naturalsciences.be/cpb/nh-collections/countries/belgium/be-rbins/7-cetaf-passport-education-and-training?@id</t>
-  </si>
-  <si>
     <t>cetaf_passport_education_and_training</t>
   </si>
   <si>
-    <t>http://collections.naturalsciences.be/cpb/nh-collections/countries/belgium/be-rbins/7-cetaf-passport-education-and-training?@type</t>
-  </si>
-  <si>
     <t>2019-09-11T16:27:46+02:00</t>
   </si>
   <si>
-    <t>http://collections.naturalsciences.be/cpb/nh-collections/countries/belgium/be-rbins/7-cetaf-passport-education-and-training?created</t>
-  </si>
-  <si>
-    <t>http://collections.naturalsciences.be/cpb/nh-collections/countries/belgium/be-rbins/7-cetaf-passport-education-and-training?description</t>
-  </si>
-  <si>
     <t>description_of_main_activities_carried_in_communication_and_outreach_online</t>
   </si>
   <si>
-    <t>http://collections.naturalsciences.be/cpb/nh-collections/countries/belgium/be-rbins/7-cetaf-passport-education-and-training?description_of_main_activities_carried_in_communication_and_outreach_online</t>
-  </si>
-  <si>
     <t>description_of_main_activities_carried_in_communication_and_outreach_other</t>
   </si>
   <si>
-    <t>http://collections.naturalsciences.be/cpb/nh-collections/countries/belgium/be-rbins/7-cetaf-passport-education-and-training?description_of_main_activities_carried_in_communication_and_outreach_other</t>
-  </si>
-  <si>
     <t>description_of_main_activities_carried_in_communication_and_outreach_with_non_universities</t>
   </si>
   <si>
-    <t>http://collections.naturalsciences.be/cpb/nh-collections/countries/belgium/be-rbins/7-cetaf-passport-education-and-training?description_of_main_activities_carried_in_communication_and_outreach_with_non_universities</t>
-  </si>
-  <si>
     <t>description_of_main_activities_carried_in_communication_and_outreach_with_universities</t>
   </si>
   <si>
-    <t>http://collections.naturalsciences.be/cpb/nh-collections/countries/belgium/be-rbins/7-cetaf-passport-education-and-training?description_of_main_activities_carried_in_communication_and_outreach_with_universities</t>
-  </si>
-  <si>
     <t>description_of_main_activities_carried_out_in_training</t>
   </si>
   <si>
-    <t>http://collections.naturalsciences.be/cpb/nh-collections/countries/belgium/be-rbins/7-cetaf-passport-education-and-training?description_of_main_activities_carried_out_in_training</t>
-  </si>
-  <si>
     <t>education_discipline</t>
   </si>
   <si>
-    <t>http://collections.naturalsciences.be/cpb/nh-collections/countries/belgium/be-rbins/7-cetaf-passport-education-and-training?education_discipline</t>
-  </si>
-  <si>
     <t>education_discipline_if_other</t>
   </si>
   <si>
-    <t>http://collections.naturalsciences.be/cpb/nh-collections/countries/belgium/be-rbins/7-cetaf-passport-education-and-training?education_discipline_if_other</t>
-  </si>
-  <si>
     <t>education_email</t>
   </si>
   <si>
     <t>pierre.coulon@naturalsciences.be</t>
   </si>
   <si>
-    <t>http://collections.naturalsciences.be/cpb/nh-collections/countries/belgium/be-rbins/7-cetaf-passport-education-and-training?education_email</t>
-  </si>
-  <si>
     <t>education_first_name_s</t>
   </si>
   <si>
     <t>Pierre</t>
   </si>
   <si>
-    <t>http://collections.naturalsciences.be/cpb/nh-collections/countries/belgium/be-rbins/7-cetaf-passport-education-and-training?education_first_name_s</t>
-  </si>
-  <si>
     <t>education_name_s</t>
   </si>
   <si>
     <t>Coulon</t>
   </si>
   <si>
-    <t>http://collections.naturalsciences.be/cpb/nh-collections/countries/belgium/be-rbins/7-cetaf-passport-education-and-training?education_name_s</t>
-  </si>
-  <si>
     <t>education_phone</t>
   </si>
   <si>
-    <t>http://collections.naturalsciences.be/cpb/nh-collections/countries/belgium/be-rbins/7-cetaf-passport-education-and-training?education_phone</t>
-  </si>
-  <si>
     <t>education_representative_position_in_the_institution</t>
   </si>
   <si>
     <t>Head of Publics Operational Directorate</t>
   </si>
   <si>
-    <t>http://collections.naturalsciences.be/cpb/nh-collections/countries/belgium/be-rbins/7-cetaf-passport-education-and-training?education_representative_position_in_the_institution</t>
-  </si>
-  <si>
     <t>education_title_s</t>
   </si>
   <si>
-    <t>http://collections.naturalsciences.be/cpb/nh-collections/countries/belgium/be-rbins/7-cetaf-passport-education-and-training?education_title_s</t>
-  </si>
-  <si>
-    <t>http://collections.naturalsciences.be/cpb/nh-collections/countries/belgium/be-rbins/7-cetaf-passport-education-and-training?items_total</t>
-  </si>
-  <si>
     <t>2020-11-10T10:40:40+01:00</t>
   </si>
   <si>
-    <t>http://collections.naturalsciences.be/cpb/nh-collections/countries/belgium/be-rbins/7-cetaf-passport-education-and-training?modified</t>
-  </si>
-  <si>
-    <t>http://collections.naturalsciences.be/cpb/nh-collections/countries/belgium/be-rbins/7-cetaf-passport-education-and-training?orcid_id</t>
-  </si>
-  <si>
-    <t>http://collections.naturalsciences.be/cpb/nh-collections/countries/belgium/be-rbins/7-cetaf-passport-education-and-training?review_state</t>
-  </si>
-  <si>
     <t>BE-RBINS Passport Education and Training</t>
   </si>
   <si>
-    <t>http://collections.naturalsciences.be/cpb/nh-collections/countries/belgium/be-rbins/7-cetaf-passport-education-and-training?title</t>
-  </si>
-  <si>
     <t>aca7c10392564613b92a3cd24c4da089</t>
   </si>
   <si>
-    <t>http://collections.naturalsciences.be/cpb/nh-collections/countries/belgium/be-rbins/7-cetaf-passport-education-and-training?uid</t>
-  </si>
-  <si>
     <t>http://collections.naturalsciences.be/cpb/nh-collections/countries/belgium/be-rbins/8-cetaf-passport-interests-involvement</t>
   </si>
   <si>
@@ -2748,9 +2644,6 @@
     <t>could be used as key in ES (not yet the case)</t>
   </si>
   <si>
-    <t>duplicate with international name ?</t>
-  </si>
-  <si>
     <t>iso code or lang ? + parsing needed to take first letters</t>
   </si>
   <si>
@@ -3124,6 +3017,51 @@
   </si>
   <si>
     <t>es_keep_list</t>
+  </si>
+  <si>
+    <t>/7-cetaf-passport-education-and-training</t>
+  </si>
+  <si>
+    <t>/education/education_general_description</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;On-line outreach activitie : &lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;other outreach activitie : &lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Non academic trainings  : &lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;Academic trainings : &lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;General description : &lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>&lt;br/&gt;</t>
+  </si>
+  <si>
+    <t>explore_url</t>
+  </si>
+  <si>
+    <t>laboratories</t>
+  </si>
+  <si>
+    <t>facility_name</t>
+  </si>
+  <si>
+    <t>/3-cetaf-passport-facilities</t>
+  </si>
+  <si>
+    <t>to_parent_institution</t>
+  </si>
+  <si>
+    <t>es_not_null</t>
+  </si>
+  <si>
+    <t>facility_address/country</t>
   </si>
 </sst>
 </file>
@@ -3195,7 +3133,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
@@ -3211,6 +3149,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3513,10 +3452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N27"/>
+  <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E19" sqref="D11:E19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3526,12 +3465,13 @@
     <col min="5" max="5" width="105.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="34.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="49.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="33.28515625" customWidth="1"/>
-    <col min="12" max="12" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="49.7109375" style="11" customWidth="1"/>
+    <col min="9" max="9" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="33.28515625" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3548,31 +3488,34 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>939</v>
+        <v>902</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>938</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>940</v>
+        <v>901</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>1007</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>1017</v>
+        <v>903</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>1018</v>
+        <v>980</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>1019</v>
+        <v>981</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>941</v>
+        <v>982</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+        <v>904</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -3583,10 +3526,10 @@
         <v>7</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -3597,38 +3540,38 @@
         <v>9</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>989</v>
+        <v>952</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>990</v>
+        <v>953</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>991</v>
+        <v>954</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>992</v>
+        <v>955</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -3639,10 +3582,10 @@
         <v>11</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -3653,19 +3596,19 @@
         <v>14</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>986</v>
+        <v>949</v>
       </c>
       <c r="F7" t="s">
-        <v>1024</v>
+        <v>987</v>
       </c>
       <c r="G7" t="s">
-        <v>896</v>
-      </c>
-      <c r="M7" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+        <v>860</v>
+      </c>
+      <c r="N7" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -3673,16 +3616,16 @@
         <v>6</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>986</v>
+        <v>949</v>
       </c>
       <c r="F8" t="s">
-        <v>1024</v>
+        <v>987</v>
       </c>
       <c r="G8" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -3693,16 +3636,16 @@
         <v>16</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>986</v>
+        <v>949</v>
       </c>
       <c r="F9" t="s">
-        <v>1024</v>
+        <v>987</v>
       </c>
       <c r="G9" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -3713,16 +3656,16 @@
         <v>18</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>986</v>
+        <v>949</v>
       </c>
       <c r="F10" t="s">
-        <v>1024</v>
+        <v>987</v>
       </c>
       <c r="G10" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -3733,16 +3676,16 @@
         <v>20</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>986</v>
+        <v>949</v>
       </c>
       <c r="F11" t="s">
-        <v>1024</v>
+        <v>987</v>
       </c>
       <c r="G11" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>47</v>
       </c>
@@ -3753,16 +3696,19 @@
         <v>21</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>986</v>
+        <v>949</v>
       </c>
       <c r="F12" t="s">
-        <v>1024</v>
+        <v>987</v>
       </c>
       <c r="G12" t="s">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+        <v>978</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -3773,13 +3719,13 @@
         <v>24</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>986</v>
-      </c>
-      <c r="M13" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+        <v>949</v>
+      </c>
+      <c r="N13" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -3790,13 +3736,13 @@
         <v>26</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>986</v>
-      </c>
-      <c r="M14" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+        <v>949</v>
+      </c>
+      <c r="N14" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -3807,10 +3753,10 @@
         <v>28</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -3821,25 +3767,25 @@
         <v>30</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>986</v>
+        <v>949</v>
       </c>
       <c r="F16" t="s">
-        <v>1024</v>
+        <v>987</v>
       </c>
       <c r="G16" t="s">
-        <v>900</v>
-      </c>
-      <c r="H16" t="s">
-        <v>909</v>
-      </c>
-      <c r="I16">
+        <v>864</v>
+      </c>
+      <c r="I16" t="s">
+        <v>872</v>
+      </c>
+      <c r="J16">
         <v>1</v>
       </c>
-      <c r="L16" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M16" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -3850,28 +3796,28 @@
         <v>32</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>986</v>
+        <v>949</v>
       </c>
       <c r="F17" t="s">
-        <v>1024</v>
+        <v>987</v>
       </c>
       <c r="G17" t="s">
-        <v>901</v>
-      </c>
-      <c r="H17" t="s">
-        <v>909</v>
-      </c>
-      <c r="I17">
+        <v>865</v>
+      </c>
+      <c r="I17" t="s">
+        <v>872</v>
+      </c>
+      <c r="J17">
         <v>1</v>
       </c>
-      <c r="L17" t="s">
-        <v>910</v>
-      </c>
       <c r="M17" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+        <v>873</v>
+      </c>
+      <c r="N17" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -3882,25 +3828,25 @@
         <v>34</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>986</v>
+        <v>949</v>
       </c>
       <c r="F18" t="s">
-        <v>1024</v>
+        <v>987</v>
       </c>
       <c r="G18" t="s">
-        <v>900</v>
-      </c>
-      <c r="H18" t="s">
-        <v>909</v>
-      </c>
-      <c r="I18">
+        <v>864</v>
+      </c>
+      <c r="I18" t="s">
+        <v>872</v>
+      </c>
+      <c r="J18">
         <v>2</v>
       </c>
-      <c r="L18" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M18" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -3911,25 +3857,25 @@
         <v>36</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>986</v>
+        <v>949</v>
       </c>
       <c r="F19" t="s">
-        <v>1024</v>
+        <v>987</v>
       </c>
       <c r="G19" t="s">
-        <v>901</v>
-      </c>
-      <c r="H19" t="s">
-        <v>909</v>
-      </c>
-      <c r="I19">
+        <v>865</v>
+      </c>
+      <c r="I19" t="s">
+        <v>872</v>
+      </c>
+      <c r="J19">
         <v>2</v>
       </c>
-      <c r="L19" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M19" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -3940,25 +3886,25 @@
         <v>38</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>986</v>
+        <v>949</v>
       </c>
       <c r="F20" t="s">
-        <v>1024</v>
+        <v>987</v>
       </c>
       <c r="G20" t="s">
-        <v>900</v>
-      </c>
-      <c r="H20" t="s">
-        <v>909</v>
-      </c>
-      <c r="I20">
+        <v>864</v>
+      </c>
+      <c r="I20" t="s">
+        <v>872</v>
+      </c>
+      <c r="J20">
         <v>3</v>
       </c>
-      <c r="L20" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M20" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -3969,25 +3915,25 @@
         <v>40</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>986</v>
+        <v>949</v>
       </c>
       <c r="F21" t="s">
-        <v>1024</v>
+        <v>987</v>
       </c>
       <c r="G21" t="s">
-        <v>901</v>
-      </c>
-      <c r="H21" t="s">
-        <v>909</v>
-      </c>
-      <c r="I21">
+        <v>865</v>
+      </c>
+      <c r="I21" t="s">
+        <v>872</v>
+      </c>
+      <c r="J21">
         <v>3</v>
       </c>
-      <c r="L21" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M21" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>41</v>
       </c>
@@ -3998,10 +3944,10 @@
         <v>14</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>42</v>
       </c>
@@ -4012,13 +3958,13 @@
         <v>43</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>986</v>
-      </c>
-      <c r="M23" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+        <v>949</v>
+      </c>
+      <c r="N23" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>44</v>
       </c>
@@ -4029,71 +3975,54 @@
         <v>46</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B25" t="s">
         <v>6</v>
       </c>
       <c r="D25" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>986</v>
-      </c>
-      <c r="M25" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+        <v>949</v>
+      </c>
+      <c r="N25" t="s">
+        <v>868</v>
+      </c>
+      <c r="O25" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B26" t="s">
         <v>6</v>
       </c>
       <c r="D26" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>986</v>
-      </c>
-      <c r="M26" t="s">
-        <v>904</v>
-      </c>
-      <c r="N26" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>50</v>
-      </c>
-      <c r="B27" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" t="s">
-        <v>51</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>986</v>
-      </c>
-      <c r="F27" t="s">
-        <v>1024</v>
-      </c>
-      <c r="G27" t="s">
-        <v>892</v>
+        <v>949</v>
+      </c>
+      <c r="F26" t="s">
+        <v>987</v>
+      </c>
+      <c r="G26" t="s">
+        <v>856</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
     <hyperlink ref="E2" r:id="rId2" display="http://collections.naturalsciences.be/cpb/nh-collections/countries/belgium/be-rbins/?@id"/>
-    <hyperlink ref="E3:E27" r:id="rId3" display="http://collections.naturalsciences.be/cpb/nh-collections/countries/belgium/be-rbins/?@id"/>
+    <hyperlink ref="E3:E26" r:id="rId3" display="http://collections.naturalsciences.be/cpb/nh-collections/countries/belgium/be-rbins/?@id"/>
     <hyperlink ref="D4" r:id="rId4"/>
     <hyperlink ref="E4" r:id="rId5" display="http://collections.naturalsciences.be/cpb/nh-collections/countries/belgium/be-rbins/?annual_report_s__url"/>
     <hyperlink ref="D5" r:id="rId6"/>
@@ -4106,7 +4035,442 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:E28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>501</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>503</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>505</v>
+      </c>
+      <c r="B5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>507</v>
+      </c>
+      <c r="B6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>510</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>449</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>513</v>
+      </c>
+      <c r="B10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>515</v>
+      </c>
+      <c r="B11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>517</v>
+      </c>
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>519</v>
+      </c>
+      <c r="B13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>521</v>
+      </c>
+      <c r="B14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>523</v>
+      </c>
+      <c r="B15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>525</v>
+      </c>
+      <c r="B16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>527</v>
+      </c>
+      <c r="B17" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>529</v>
+      </c>
+      <c r="B18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>531</v>
+      </c>
+      <c r="B19" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>418</v>
+      </c>
+      <c r="B20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>420</v>
+      </c>
+      <c r="B21" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" t="s">
+        <v>103</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" t="s">
+        <v>503</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" t="s">
+        <v>362</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" t="s">
+        <v>538</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>540</v>
+      </c>
+      <c r="B26" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" t="s">
+        <v>68</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" t="s">
+        <v>542</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>544</v>
+      </c>
+      <c r="B28" t="s">
+        <v>70</v>
+      </c>
+      <c r="D28" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>545</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="E2" r:id="rId2"/>
+    <hyperlink ref="E3" r:id="rId3"/>
+    <hyperlink ref="E4" r:id="rId4"/>
+    <hyperlink ref="E5" r:id="rId5"/>
+    <hyperlink ref="E6" r:id="rId6"/>
+    <hyperlink ref="E7" r:id="rId7"/>
+    <hyperlink ref="E8" r:id="rId8"/>
+    <hyperlink ref="E9" r:id="rId9"/>
+    <hyperlink ref="E10" r:id="rId10"/>
+    <hyperlink ref="E11" r:id="rId11"/>
+    <hyperlink ref="E12" r:id="rId12"/>
+    <hyperlink ref="E13" r:id="rId13"/>
+    <hyperlink ref="E14" r:id="rId14"/>
+    <hyperlink ref="E15" r:id="rId15"/>
+    <hyperlink ref="E16" r:id="rId16"/>
+    <hyperlink ref="E17" r:id="rId17"/>
+    <hyperlink ref="E18" r:id="rId18"/>
+    <hyperlink ref="E19" r:id="rId19"/>
+    <hyperlink ref="E20" r:id="rId20"/>
+    <hyperlink ref="E21" r:id="rId21"/>
+    <hyperlink ref="E22" r:id="rId22"/>
+    <hyperlink ref="E23" r:id="rId23"/>
+    <hyperlink ref="E24" r:id="rId24"/>
+    <hyperlink ref="E25" r:id="rId25"/>
+    <hyperlink ref="E26" r:id="rId26"/>
+    <hyperlink ref="E27" r:id="rId27"/>
+    <hyperlink ref="E28" r:id="rId28"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
@@ -4119,10 +4483,11 @@
     <col min="4" max="4" width="87" customWidth="1"/>
     <col min="5" max="5" width="35.42578125" customWidth="1"/>
     <col min="6" max="6" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.85546875" style="11" customWidth="1"/>
+    <col min="8" max="8" width="27.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4139,43 +4504,46 @@
         <v>4</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>939</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>938</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>940</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>1017</v>
+        <v>902</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>1007</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>901</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>903</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>1018</v>
+        <v>980</v>
       </c>
       <c r="K1" s="14" t="s">
-        <v>1019</v>
+        <v>981</v>
       </c>
       <c r="L1" s="14" t="s">
-        <v>1021</v>
-      </c>
-      <c r="M1" s="12" t="s">
-        <v>943</v>
+        <v>982</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>984</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>941</v>
+        <v>906</v>
       </c>
       <c r="O1" s="12" t="s">
-        <v>942</v>
+        <v>904</v>
       </c>
       <c r="P1" s="12" t="s">
-        <v>995</v>
+        <v>905</v>
       </c>
       <c r="Q1" s="12" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+        <v>958</v>
+      </c>
+      <c r="R1" s="12" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -4183,13 +4551,13 @@
         <v>6</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -4197,12 +4565,12 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
@@ -4211,7 +4579,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -4219,10 +4587,10 @@
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -4230,7 +4598,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>182</v>
       </c>
@@ -4241,7 +4609,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -4249,10 +4617,10 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -4260,12 +4628,12 @@
         <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
       <c r="B10" t="s">
         <v>70</v>
@@ -4274,7 +4642,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>195</v>
       </c>
@@ -4282,12 +4650,12 @@
         <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>567</v>
+        <v>554</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
@@ -4296,9 +4664,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>568</v>
+        <v>555</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -4307,16 +4675,19 @@
         <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>1027</v>
+        <v>990</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>1024</v>
-      </c>
-      <c r="G13" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+        <v>987</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>879</v>
+      </c>
+      <c r="H13" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>42</v>
       </c>
@@ -4327,20 +4698,20 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>569</v>
+        <v>556</v>
       </c>
       <c r="B15" t="s">
         <v>45</v>
       </c>
       <c r="D15" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>571</v>
+        <v>558</v>
       </c>
       <c r="B16" t="s">
         <v>70</v>
@@ -4351,7 +4722,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>572</v>
+        <v>559</v>
       </c>
       <c r="B17" t="s">
         <v>70</v>
@@ -4362,51 +4733,51 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>573</v>
+        <v>560</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
       </c>
       <c r="D18" t="s">
-        <v>574</v>
+        <v>561</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>575</v>
+        <v>562</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
       </c>
       <c r="D19" t="s">
-        <v>576</v>
+        <v>563</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>577</v>
+        <v>564</v>
       </c>
       <c r="B20" t="s">
         <v>6</v>
       </c>
       <c r="D20" t="s">
-        <v>578</v>
+        <v>565</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>579</v>
+        <v>566</v>
       </c>
       <c r="B21" t="s">
         <v>6</v>
       </c>
       <c r="D21" t="s">
-        <v>580</v>
+        <v>567</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>581</v>
+        <v>568</v>
       </c>
       <c r="B22" t="s">
         <v>6</v>
@@ -4423,7 +4794,7 @@
         <v>6</v>
       </c>
       <c r="D23" t="s">
-        <v>582</v>
+        <v>569</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -4434,7 +4805,7 @@
         <v>6</v>
       </c>
       <c r="D24" t="s">
-        <v>583</v>
+        <v>570</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -4456,7 +4827,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E23"/>
   <sheetViews>
@@ -4489,10 +4860,10 @@
         <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>584</v>
+        <v>571</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>585</v>
+        <v>572</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -4503,10 +4874,10 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>586</v>
+        <v>573</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>587</v>
+        <v>574</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -4517,10 +4888,10 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>588</v>
+        <v>575</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -4531,15 +4902,15 @@
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>590</v>
+        <v>577</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>591</v>
+        <v>578</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>433</v>
+        <v>420</v>
       </c>
       <c r="B6" t="s">
         <v>70</v>
@@ -4548,7 +4919,7 @@
         <v>14</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>592</v>
+        <v>579</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -4562,12 +4933,12 @@
         <v>103</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>593</v>
+        <v>580</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>594</v>
+        <v>581</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
@@ -4576,7 +4947,7 @@
         <v>14</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>595</v>
+        <v>582</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -4587,10 +4958,10 @@
         <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>596</v>
+        <v>583</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>597</v>
+        <v>584</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -4604,12 +4975,12 @@
         <v>14</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>598</v>
+        <v>585</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>599</v>
+        <v>586</v>
       </c>
       <c r="B11" t="s">
         <v>45</v>
@@ -4618,12 +4989,12 @@
         <v>68</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>600</v>
+        <v>587</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>601</v>
+        <v>588</v>
       </c>
       <c r="B12" t="s">
         <v>70</v>
@@ -4632,7 +5003,7 @@
         <v>14</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>602</v>
+        <v>589</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -4646,12 +5017,12 @@
         <v>43</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>603</v>
+        <v>590</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>604</v>
+        <v>591</v>
       </c>
       <c r="B14" t="s">
         <v>70</v>
@@ -4660,12 +5031,12 @@
         <v>14</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>605</v>
+        <v>592</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="B15" t="s">
         <v>45</v>
@@ -4674,12 +5045,12 @@
         <v>68</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>607</v>
+        <v>594</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>608</v>
+        <v>595</v>
       </c>
       <c r="B16" t="s">
         <v>70</v>
@@ -4688,12 +5059,12 @@
         <v>14</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>610</v>
+        <v>597</v>
       </c>
       <c r="B17" t="s">
         <v>70</v>
@@ -4702,12 +5073,12 @@
         <v>14</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>612</v>
+        <v>599</v>
       </c>
       <c r="B18" t="s">
         <v>70</v>
@@ -4716,12 +5087,12 @@
         <v>14</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>613</v>
+        <v>600</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>614</v>
+        <v>601</v>
       </c>
       <c r="B19" t="s">
         <v>70</v>
@@ -4730,12 +5101,12 @@
         <v>14</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>615</v>
+        <v>602</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>616</v>
+        <v>603</v>
       </c>
       <c r="B20" t="s">
         <v>70</v>
@@ -4744,12 +5115,12 @@
         <v>14</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>617</v>
+        <v>604</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>618</v>
+        <v>605</v>
       </c>
       <c r="B21" t="s">
         <v>13</v>
@@ -4758,7 +5129,7 @@
         <v>14</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>619</v>
+        <v>606</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -4769,10 +5140,10 @@
         <v>6</v>
       </c>
       <c r="D22" t="s">
-        <v>620</v>
+        <v>607</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>621</v>
+        <v>608</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -4783,10 +5154,10 @@
         <v>6</v>
       </c>
       <c r="D23" t="s">
-        <v>622</v>
+        <v>609</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>623</v>
+        <v>610</v>
       </c>
     </row>
   </sheetData>
@@ -4819,11 +5190,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O41" sqref="O41"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -4852,10 +5225,10 @@
         <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>624</v>
+        <v>611</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>625</v>
+        <v>612</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -4866,10 +5239,10 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>626</v>
+        <v>613</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>627</v>
+        <v>614</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -4880,10 +5253,10 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>628</v>
+        <v>615</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>629</v>
+        <v>616</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -4894,15 +5267,15 @@
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>630</v>
+        <v>617</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>631</v>
+        <v>618</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>632</v>
+        <v>619</v>
       </c>
       <c r="B6" t="s">
         <v>70</v>
@@ -4911,12 +5284,12 @@
         <v>14</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>633</v>
+        <v>620</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>634</v>
+        <v>621</v>
       </c>
       <c r="B7" t="s">
         <v>70</v>
@@ -4925,7 +5298,7 @@
         <v>14</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>635</v>
+        <v>622</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -4939,12 +5312,12 @@
         <v>103</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>636</v>
+        <v>623</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>594</v>
+        <v>581</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
@@ -4953,7 +5326,7 @@
         <v>14</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>637</v>
+        <v>624</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -4964,15 +5337,15 @@
         <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>638</v>
+        <v>625</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>639</v>
+        <v>626</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>640</v>
+        <v>627</v>
       </c>
       <c r="B11" t="s">
         <v>70</v>
@@ -4981,26 +5354,26 @@
         <v>14</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>641</v>
+        <v>628</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>642</v>
+        <v>629</v>
       </c>
       <c r="B12" t="s">
         <v>45</v>
       </c>
       <c r="D12" t="s">
-        <v>570</v>
+        <v>557</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>643</v>
+        <v>630</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>644</v>
+        <v>631</v>
       </c>
       <c r="B13" t="s">
         <v>70</v>
@@ -5009,40 +5382,40 @@
         <v>14</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>645</v>
+        <v>632</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>646</v>
+        <v>633</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>647</v>
+        <v>634</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>648</v>
+        <v>635</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>649</v>
+        <v>636</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
       </c>
       <c r="D15" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
       <c r="B16" t="s">
         <v>70</v>
@@ -5051,40 +5424,40 @@
         <v>14</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>653</v>
+        <v>640</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>654</v>
+        <v>641</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
       </c>
       <c r="D17" t="s">
-        <v>576</v>
+        <v>563</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>655</v>
+        <v>642</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>656</v>
+        <v>643</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
       </c>
       <c r="D18" t="s">
-        <v>578</v>
+        <v>565</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>657</v>
+        <v>644</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>658</v>
+        <v>645</v>
       </c>
       <c r="B19" t="s">
         <v>70</v>
@@ -5093,12 +5466,12 @@
         <v>14</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>659</v>
+        <v>646</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>660</v>
+        <v>647</v>
       </c>
       <c r="B20" t="s">
         <v>70</v>
@@ -5107,12 +5480,12 @@
         <v>14</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>661</v>
+        <v>648</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>662</v>
+        <v>649</v>
       </c>
       <c r="B21" t="s">
         <v>6</v>
@@ -5121,12 +5494,12 @@
         <v>84</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>663</v>
+        <v>650</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>664</v>
+        <v>651</v>
       </c>
       <c r="B22" t="s">
         <v>45</v>
@@ -5135,12 +5508,12 @@
         <v>68</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>665</v>
+        <v>652</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>599</v>
+        <v>586</v>
       </c>
       <c r="B23" t="s">
         <v>45</v>
@@ -5149,7 +5522,7 @@
         <v>68</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>666</v>
+        <v>653</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -5163,7 +5536,7 @@
         <v>43</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>667</v>
+        <v>654</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -5174,10 +5547,10 @@
         <v>6</v>
       </c>
       <c r="D25" t="s">
-        <v>668</v>
+        <v>655</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>669</v>
+        <v>656</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -5188,10 +5561,10 @@
         <v>6</v>
       </c>
       <c r="D26" t="s">
-        <v>670</v>
+        <v>657</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>671</v>
+        <v>658</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -5205,7 +5578,7 @@
         <v>14</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>672</v>
+        <v>659</v>
       </c>
     </row>
   </sheetData>
@@ -5242,11 +5615,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:S11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
@@ -5256,10 +5629,12 @@
     <col min="4" max="4" width="40.7109375" customWidth="1"/>
     <col min="5" max="5" width="41.85546875" customWidth="1"/>
     <col min="6" max="6" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="11"/>
+    <col min="7" max="7" width="24.140625" customWidth="1"/>
+    <col min="8" max="8" width="24.140625" style="11" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5276,46 +5651,49 @@
         <v>4</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>939</v>
+        <v>902</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>938</v>
+        <v>901</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>1030</v>
+        <v>1007</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>940</v>
-      </c>
-      <c r="J1" s="14" t="s">
-        <v>1017</v>
+        <v>993</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>903</v>
       </c>
       <c r="K1" s="14" t="s">
-        <v>1018</v>
+        <v>980</v>
       </c>
       <c r="L1" s="14" t="s">
-        <v>1019</v>
+        <v>981</v>
       </c>
       <c r="M1" s="14" t="s">
-        <v>1021</v>
-      </c>
-      <c r="N1" s="12" t="s">
-        <v>943</v>
+        <v>982</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>984</v>
       </c>
       <c r="O1" s="12" t="s">
-        <v>941</v>
+        <v>906</v>
       </c>
       <c r="P1" s="12" t="s">
-        <v>942</v>
+        <v>904</v>
       </c>
       <c r="Q1" s="12" t="s">
-        <v>995</v>
+        <v>905</v>
       </c>
       <c r="R1" s="12" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+        <v>958</v>
+      </c>
+      <c r="S1" s="12" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -5323,13 +5701,13 @@
         <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>673</v>
+        <v>660</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -5337,11 +5715,11 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>674</v>
+        <v>661</v>
       </c>
       <c r="E3" s="13"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -5349,11 +5727,11 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>675</v>
+        <v>662</v>
       </c>
       <c r="E4" s="13"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -5362,7 +5740,7 @@
       </c>
       <c r="E5" s="13"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -5370,13 +5748,13 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>676</v>
+        <v>663</v>
       </c>
       <c r="E6" s="13"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>677</v>
+        <v>664</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
@@ -5385,19 +5763,22 @@
         <v>14</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>1029</v>
+        <v>992</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>1024</v>
+        <v>987</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>1028</v>
-      </c>
-      <c r="H7" s="11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+        <v>991</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>879</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -5405,11 +5786,11 @@
         <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>678</v>
+        <v>665</v>
       </c>
       <c r="E8" s="13"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -5421,7 +5802,7 @@
       </c>
       <c r="E9" s="13"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>47</v>
       </c>
@@ -5429,11 +5810,11 @@
         <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>679</v>
+        <v>666</v>
       </c>
       <c r="E10" s="13"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>48</v>
       </c>
@@ -5441,7 +5822,7 @@
         <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>680</v>
+        <v>667</v>
       </c>
       <c r="E11" s="13"/>
     </row>
@@ -5453,7 +5834,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E31"/>
   <sheetViews>
@@ -5486,10 +5867,10 @@
         <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>681</v>
+        <v>668</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>682</v>
+        <v>669</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -5500,10 +5881,10 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>683</v>
+        <v>670</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>684</v>
+        <v>671</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -5514,10 +5895,10 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>685</v>
+        <v>672</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>686</v>
+        <v>673</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -5528,12 +5909,12 @@
         <v>6</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>687</v>
+        <v>674</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>688</v>
+        <v>675</v>
       </c>
       <c r="B6" t="s">
         <v>70</v>
@@ -5542,12 +5923,12 @@
         <v>14</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>689</v>
+        <v>676</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>690</v>
+        <v>677</v>
       </c>
       <c r="B7" t="s">
         <v>45</v>
@@ -5556,12 +5937,12 @@
         <v>68</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>691</v>
+        <v>678</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>692</v>
+        <v>679</v>
       </c>
       <c r="B8" t="s">
         <v>45</v>
@@ -5570,12 +5951,12 @@
         <v>68</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>693</v>
+        <v>680</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>694</v>
+        <v>681</v>
       </c>
       <c r="B9" t="s">
         <v>70</v>
@@ -5584,12 +5965,12 @@
         <v>14</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>695</v>
+        <v>682</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>696</v>
+        <v>683</v>
       </c>
       <c r="B10" t="s">
         <v>70</v>
@@ -5598,12 +5979,12 @@
         <v>14</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>697</v>
+        <v>684</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>698</v>
+        <v>685</v>
       </c>
       <c r="B11" t="s">
         <v>70</v>
@@ -5612,7 +5993,7 @@
         <v>14</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>699</v>
+        <v>686</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -5626,12 +6007,12 @@
         <v>103</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>700</v>
+        <v>687</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>701</v>
+        <v>688</v>
       </c>
       <c r="B13" t="s">
         <v>70</v>
@@ -5640,26 +6021,26 @@
         <v>14</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>702</v>
+        <v>689</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>703</v>
+        <v>690</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>704</v>
+        <v>691</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>705</v>
+        <v>692</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>706</v>
+        <v>693</v>
       </c>
       <c r="B15" t="s">
         <v>70</v>
@@ -5668,12 +6049,12 @@
         <v>14</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>707</v>
+        <v>694</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>708</v>
+        <v>695</v>
       </c>
       <c r="B16" t="s">
         <v>70</v>
@@ -5682,12 +6063,12 @@
         <v>14</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>709</v>
+        <v>696</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>710</v>
+        <v>697</v>
       </c>
       <c r="B17" t="s">
         <v>70</v>
@@ -5696,7 +6077,7 @@
         <v>14</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>711</v>
+        <v>698</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -5710,7 +6091,7 @@
         <v>14</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>712</v>
+        <v>699</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -5721,10 +6102,10 @@
         <v>6</v>
       </c>
       <c r="D19" t="s">
-        <v>713</v>
+        <v>700</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>714</v>
+        <v>701</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -5738,12 +6119,12 @@
         <v>14</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>715</v>
+        <v>702</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>716</v>
+        <v>703</v>
       </c>
       <c r="B21" t="s">
         <v>13</v>
@@ -5752,12 +6133,12 @@
         <v>14</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>717</v>
+        <v>704</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>718</v>
+        <v>705</v>
       </c>
       <c r="B22" t="s">
         <v>70</v>
@@ -5766,12 +6147,12 @@
         <v>14</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>719</v>
+        <v>706</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>720</v>
+        <v>707</v>
       </c>
       <c r="B23" t="s">
         <v>70</v>
@@ -5780,12 +6161,12 @@
         <v>14</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>721</v>
+        <v>708</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>722</v>
+        <v>709</v>
       </c>
       <c r="B24" t="s">
         <v>70</v>
@@ -5794,12 +6175,12 @@
         <v>14</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>723</v>
+        <v>710</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>724</v>
+        <v>711</v>
       </c>
       <c r="B25" t="s">
         <v>45</v>
@@ -5808,7 +6189,7 @@
         <v>68</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>725</v>
+        <v>712</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -5822,12 +6203,12 @@
         <v>43</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>726</v>
+        <v>713</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>727</v>
+        <v>714</v>
       </c>
       <c r="B27" t="s">
         <v>45</v>
@@ -5836,12 +6217,12 @@
         <v>68</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>728</v>
+        <v>715</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>729</v>
+        <v>716</v>
       </c>
       <c r="B28" t="s">
         <v>70</v>
@@ -5850,12 +6231,12 @@
         <v>14</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>730</v>
+        <v>717</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>731</v>
+        <v>718</v>
       </c>
       <c r="B29" t="s">
         <v>45</v>
@@ -5864,7 +6245,7 @@
         <v>68</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>732</v>
+        <v>719</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -5875,10 +6256,10 @@
         <v>6</v>
       </c>
       <c r="D30" t="s">
-        <v>733</v>
+        <v>720</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>734</v>
+        <v>721</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -5889,10 +6270,10 @@
         <v>6</v>
       </c>
       <c r="D31" t="s">
-        <v>735</v>
+        <v>722</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>736</v>
+        <v>723</v>
       </c>
     </row>
   </sheetData>
@@ -5933,11 +6314,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -5966,10 +6349,10 @@
         <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>737</v>
+        <v>724</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>738</v>
+        <v>725</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -5980,15 +6363,15 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>739</v>
+        <v>726</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>740</v>
+        <v>727</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>741</v>
+        <v>728</v>
       </c>
       <c r="B4" t="s">
         <v>45</v>
@@ -5997,12 +6380,12 @@
         <v>68</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>742</v>
+        <v>729</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>743</v>
+        <v>730</v>
       </c>
       <c r="B5" t="s">
         <v>70</v>
@@ -6011,12 +6394,12 @@
         <v>14</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>744</v>
+        <v>731</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>745</v>
+        <v>732</v>
       </c>
       <c r="B6" t="s">
         <v>70</v>
@@ -6025,12 +6408,12 @@
         <v>14</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>746</v>
+        <v>733</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>747</v>
+        <v>734</v>
       </c>
       <c r="B7" t="s">
         <v>70</v>
@@ -6039,12 +6422,12 @@
         <v>14</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>748</v>
+        <v>735</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>749</v>
+        <v>736</v>
       </c>
       <c r="B8" t="s">
         <v>70</v>
@@ -6053,12 +6436,12 @@
         <v>14</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>750</v>
+        <v>737</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>751</v>
+        <v>738</v>
       </c>
       <c r="B9" t="s">
         <v>70</v>
@@ -6067,12 +6450,12 @@
         <v>14</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>752</v>
+        <v>739</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>753</v>
+        <v>740</v>
       </c>
       <c r="B10" t="s">
         <v>70</v>
@@ -6081,12 +6464,12 @@
         <v>14</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>754</v>
+        <v>741</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>755</v>
+        <v>742</v>
       </c>
       <c r="B11" t="s">
         <v>70</v>
@@ -6095,12 +6478,12 @@
         <v>14</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>756</v>
+        <v>743</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>757</v>
+        <v>744</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
@@ -6109,7 +6492,7 @@
         <v>14</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>758</v>
+        <v>745</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -6120,10 +6503,10 @@
         <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>759</v>
+        <v>746</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>760</v>
+        <v>747</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -6134,12 +6517,12 @@
         <v>6</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>761</v>
+        <v>748</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>762</v>
+        <v>749</v>
       </c>
       <c r="B15" t="s">
         <v>70</v>
@@ -6148,12 +6531,12 @@
         <v>14</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>763</v>
+        <v>750</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>764</v>
+        <v>751</v>
       </c>
       <c r="B16" t="s">
         <v>13</v>
@@ -6162,26 +6545,26 @@
         <v>14</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>765</v>
+        <v>752</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>766</v>
+        <v>753</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>767</v>
+        <v>754</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>768</v>
+        <v>755</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>769</v>
+        <v>756</v>
       </c>
       <c r="B18" t="s">
         <v>70</v>
@@ -6190,7 +6573,7 @@
         <v>14</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>770</v>
+        <v>757</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -6204,12 +6587,12 @@
         <v>103</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>771</v>
+        <v>758</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>772</v>
+        <v>759</v>
       </c>
       <c r="B20" t="s">
         <v>70</v>
@@ -6218,7 +6601,7 @@
         <v>14</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>773</v>
+        <v>760</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -6229,10 +6612,10 @@
         <v>6</v>
       </c>
       <c r="D21" t="s">
-        <v>774</v>
+        <v>761</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>775</v>
+        <v>762</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -6246,7 +6629,7 @@
         <v>14</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>776</v>
+        <v>763</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -6260,12 +6643,12 @@
         <v>43</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>777</v>
+        <v>764</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>778</v>
+        <v>765</v>
       </c>
       <c r="B24" t="s">
         <v>70</v>
@@ -6274,7 +6657,7 @@
         <v>14</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>779</v>
+        <v>766</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -6285,15 +6668,15 @@
         <v>6</v>
       </c>
       <c r="D25" t="s">
-        <v>780</v>
+        <v>767</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>781</v>
+        <v>768</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>782</v>
+        <v>769</v>
       </c>
       <c r="B26" t="s">
         <v>70</v>
@@ -6302,21 +6685,21 @@
         <v>14</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>783</v>
+        <v>770</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>784</v>
+        <v>771</v>
       </c>
       <c r="B27" t="s">
         <v>6</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>785</v>
+        <v>772</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>786</v>
+        <v>773</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -6327,15 +6710,15 @@
         <v>6</v>
       </c>
       <c r="D28" t="s">
-        <v>787</v>
+        <v>774</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>788</v>
+        <v>775</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>789</v>
+        <v>776</v>
       </c>
       <c r="B29" t="s">
         <v>70</v>
@@ -6344,12 +6727,12 @@
         <v>14</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>790</v>
+        <v>777</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>791</v>
+        <v>778</v>
       </c>
       <c r="B30" t="s">
         <v>70</v>
@@ -6358,7 +6741,7 @@
         <v>14</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>792</v>
+        <v>779</v>
       </c>
     </row>
   </sheetData>
@@ -6400,15 +6783,31 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:S24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D1" sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="88.85546875" customWidth="1"/>
+    <col min="4" max="4" width="116.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="40.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="40.140625" style="11" customWidth="1"/>
+    <col min="9" max="9" width="23.85546875" customWidth="1"/>
+    <col min="10" max="10" width="18.5703125" customWidth="1"/>
+    <col min="11" max="11" width="20.5703125" customWidth="1"/>
+    <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6421,11 +6820,53 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="12" t="s">
+        <v>902</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>901</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>993</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>903</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>980</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>981</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>982</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>984</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>906</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>904</v>
+      </c>
+      <c r="Q1" s="12" t="s">
+        <v>905</v>
+      </c>
+      <c r="R1" s="12" t="s">
+        <v>958</v>
+      </c>
+      <c r="S1" s="12" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -6433,13 +6874,13 @@
         <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>793</v>
+        <v>780</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -6447,13 +6888,11 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>795</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>781</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -6461,26 +6900,22 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>797</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>782</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>800</v>
+        <v>783</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
@@ -6488,13 +6923,31 @@
       <c r="D6" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E6" s="13" t="s">
+        <v>994</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>987</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>995</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>879</v>
+      </c>
+      <c r="L6" t="s">
+        <v>879</v>
+      </c>
+      <c r="N6" t="s">
+        <v>1001</v>
+      </c>
+      <c r="O6" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>802</v>
+        <v>784</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
@@ -6502,13 +6955,32 @@
       <c r="D7" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E7" s="13" t="s">
+        <v>994</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>987</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>995</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>879</v>
+      </c>
+      <c r="J7" s="11"/>
+      <c r="L7" t="s">
+        <v>879</v>
+      </c>
+      <c r="N7" s="11" t="s">
+        <v>1001</v>
+      </c>
+      <c r="O7" s="11" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>804</v>
+        <v>785</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
@@ -6516,13 +6988,32 @@
       <c r="D8" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E8" s="13" t="s">
+        <v>994</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>987</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>995</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>879</v>
+      </c>
+      <c r="J8" s="11"/>
+      <c r="L8" t="s">
+        <v>879</v>
+      </c>
+      <c r="N8" s="11" t="s">
+        <v>1001</v>
+      </c>
+      <c r="O8" s="11" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>806</v>
+        <v>786</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
@@ -6530,13 +7021,32 @@
       <c r="D9" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E9" s="13" t="s">
+        <v>994</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>987</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>995</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>879</v>
+      </c>
+      <c r="J9" s="11"/>
+      <c r="L9" t="s">
+        <v>879</v>
+      </c>
+      <c r="N9" s="11" t="s">
+        <v>1001</v>
+      </c>
+      <c r="O9" s="11" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>808</v>
+        <v>787</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
@@ -6544,27 +7054,44 @@
       <c r="D10" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E10" s="13" t="s">
+        <v>994</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>987</v>
+      </c>
+      <c r="G10" t="s">
+        <v>995</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>879</v>
+      </c>
+      <c r="J10" s="11"/>
+      <c r="L10" t="s">
+        <v>879</v>
+      </c>
+      <c r="N10" s="11" t="s">
+        <v>1001</v>
+      </c>
+      <c r="O10" s="11" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>810</v>
+        <v>788</v>
       </c>
       <c r="B11" t="s">
         <v>45</v>
       </c>
       <c r="D11" t="s">
-        <v>570</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>557</v>
+      </c>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>812</v>
+        <v>789</v>
       </c>
       <c r="B12" t="s">
         <v>70</v>
@@ -6572,55 +7099,47 @@
       <c r="D12" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>814</v>
+        <v>790</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>815</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>791</v>
+      </c>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>817</v>
+        <v>792</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>818</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>793</v>
+      </c>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>820</v>
+        <v>794</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
       </c>
       <c r="D15" t="s">
-        <v>821</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>795</v>
+      </c>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>823</v>
+        <v>796</v>
       </c>
       <c r="B16" t="s">
         <v>70</v>
@@ -6628,27 +7147,23 @@
       <c r="D16" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>824</v>
-      </c>
+      <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>825</v>
+        <v>797</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
       </c>
       <c r="D17" t="s">
-        <v>826</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>827</v>
-      </c>
+        <v>798</v>
+      </c>
+      <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>828</v>
+        <v>799</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
@@ -6656,9 +7171,7 @@
       <c r="D18" t="s">
         <v>84</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>829</v>
-      </c>
+      <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -6670,9 +7183,7 @@
       <c r="D19" t="s">
         <v>103</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>830</v>
-      </c>
+      <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -6682,11 +7193,9 @@
         <v>6</v>
       </c>
       <c r="D20" t="s">
-        <v>831</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>832</v>
-      </c>
+        <v>800</v>
+      </c>
+      <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -6698,9 +7207,7 @@
       <c r="D21" t="s">
         <v>14</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>833</v>
-      </c>
+      <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -6712,9 +7219,7 @@
       <c r="D22" t="s">
         <v>43</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>834</v>
-      </c>
+      <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -6724,11 +7229,9 @@
         <v>6</v>
       </c>
       <c r="D23" t="s">
-        <v>835</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>836</v>
-      </c>
+        <v>801</v>
+      </c>
+      <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -6738,44 +7241,19 @@
         <v>6</v>
       </c>
       <c r="D24" t="s">
-        <v>837</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>838</v>
-      </c>
+        <v>802</v>
+      </c>
+      <c r="E24" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="E2" r:id="rId2"/>
-    <hyperlink ref="E3" r:id="rId3"/>
-    <hyperlink ref="E4" r:id="rId4"/>
-    <hyperlink ref="E5" r:id="rId5"/>
-    <hyperlink ref="E6" r:id="rId6"/>
-    <hyperlink ref="E7" r:id="rId7"/>
-    <hyperlink ref="E8" r:id="rId8"/>
-    <hyperlink ref="E9" r:id="rId9"/>
-    <hyperlink ref="E10" r:id="rId10"/>
-    <hyperlink ref="E11" r:id="rId11"/>
-    <hyperlink ref="E12" r:id="rId12"/>
-    <hyperlink ref="E13" r:id="rId13"/>
-    <hyperlink ref="E14" r:id="rId14"/>
-    <hyperlink ref="E15" r:id="rId15"/>
-    <hyperlink ref="E16" r:id="rId16"/>
-    <hyperlink ref="E17" r:id="rId17"/>
-    <hyperlink ref="E18" r:id="rId18"/>
-    <hyperlink ref="E19" r:id="rId19"/>
-    <hyperlink ref="E20" r:id="rId20"/>
-    <hyperlink ref="E21" r:id="rId21"/>
-    <hyperlink ref="E22" r:id="rId22"/>
-    <hyperlink ref="E23" r:id="rId23"/>
-    <hyperlink ref="E24" r:id="rId24"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
@@ -6808,10 +7286,10 @@
         <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>839</v>
+        <v>803</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>840</v>
+        <v>804</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -6822,10 +7300,10 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>841</v>
+        <v>805</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>842</v>
+        <v>806</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -6836,10 +7314,10 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>843</v>
+        <v>807</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>844</v>
+        <v>808</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -6850,26 +7328,26 @@
         <v>6</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>845</v>
+        <v>809</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>846</v>
+        <v>810</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>847</v>
+        <v>811</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>848</v>
+        <v>812</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>849</v>
+        <v>813</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
@@ -6878,7 +7356,7 @@
         <v>14</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>850</v>
+        <v>814</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -6892,12 +7370,12 @@
         <v>103</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>851</v>
+        <v>815</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>852</v>
+        <v>816</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
@@ -6906,12 +7384,12 @@
         <v>14</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>853</v>
+        <v>817</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>854</v>
+        <v>818</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
@@ -6920,7 +7398,7 @@
         <v>14</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>855</v>
+        <v>819</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -6931,10 +7409,10 @@
         <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>856</v>
+        <v>820</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>857</v>
+        <v>821</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -6948,7 +7426,7 @@
         <v>43</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>858</v>
+        <v>822</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -6959,10 +7437,10 @@
         <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>859</v>
+        <v>823</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>860</v>
+        <v>824</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -6973,10 +7451,10 @@
         <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>861</v>
+        <v>825</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>862</v>
+        <v>826</v>
       </c>
     </row>
   </sheetData>
@@ -7001,7 +7479,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E16"/>
   <sheetViews>
@@ -7034,10 +7512,10 @@
         <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>863</v>
+        <v>827</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>864</v>
+        <v>828</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -7048,15 +7526,15 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>865</v>
+        <v>829</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>866</v>
+        <v>830</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>867</v>
+        <v>831</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
@@ -7065,7 +7543,7 @@
         <v>14</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>868</v>
+        <v>832</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -7076,10 +7554,10 @@
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>869</v>
+        <v>833</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>870</v>
+        <v>834</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -7090,12 +7568,12 @@
         <v>6</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>871</v>
+        <v>835</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>872</v>
+        <v>836</v>
       </c>
       <c r="B7" t="s">
         <v>70</v>
@@ -7104,12 +7582,12 @@
         <v>14</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>873</v>
+        <v>837</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>874</v>
+        <v>838</v>
       </c>
       <c r="B8" t="s">
         <v>70</v>
@@ -7118,12 +7596,12 @@
         <v>14</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>875</v>
+        <v>839</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>876</v>
+        <v>840</v>
       </c>
       <c r="B9" t="s">
         <v>70</v>
@@ -7132,12 +7610,12 @@
         <v>14</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>877</v>
+        <v>841</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>878</v>
+        <v>842</v>
       </c>
       <c r="B10" t="s">
         <v>70</v>
@@ -7146,7 +7624,7 @@
         <v>14</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>879</v>
+        <v>843</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -7160,7 +7638,7 @@
         <v>103</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>880</v>
+        <v>844</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -7171,15 +7649,15 @@
         <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>881</v>
+        <v>845</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>882</v>
+        <v>846</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>883</v>
+        <v>847</v>
       </c>
       <c r="B13" t="s">
         <v>70</v>
@@ -7188,7 +7666,7 @@
         <v>14</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>884</v>
+        <v>848</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -7202,7 +7680,7 @@
         <v>43</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>885</v>
+        <v>849</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -7213,10 +7691,10 @@
         <v>6</v>
       </c>
       <c r="D15" t="s">
-        <v>886</v>
+        <v>850</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>887</v>
+        <v>851</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -7227,10 +7705,10 @@
         <v>6</v>
       </c>
       <c r="D16" t="s">
-        <v>888</v>
+        <v>852</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>889</v>
+        <v>853</v>
       </c>
     </row>
   </sheetData>
@@ -7260,8 +7738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q77"/>
   <sheetViews>
-    <sheetView topLeftCell="D4" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7301,40 +7779,40 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>939</v>
+        <v>902</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>938</v>
+        <v>901</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>940</v>
+        <v>903</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>1017</v>
+        <v>980</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>1018</v>
+        <v>981</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>1019</v>
+        <v>982</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>1021</v>
+        <v>984</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>943</v>
+        <v>906</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>941</v>
+        <v>904</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>942</v>
+        <v>905</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>995</v>
+        <v>958</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>894</v>
+        <v>858</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -7348,7 +7826,7 @@
         <v>52</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>987</v>
+        <v>950</v>
       </c>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
@@ -7366,7 +7844,7 @@
         <v>53</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>987</v>
+        <v>950</v>
       </c>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
@@ -7384,20 +7862,20 @@
         <v>55</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="F4" t="s">
         <v>987</v>
       </c>
-      <c r="F4" t="s">
-        <v>1024</v>
-      </c>
       <c r="G4" t="s">
-        <v>907</v>
+        <v>870</v>
       </c>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
       <c r="N4" t="s">
-        <v>910</v>
+        <v>873</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -7411,20 +7889,20 @@
         <v>57</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="F5" t="s">
         <v>987</v>
       </c>
-      <c r="F5" t="s">
-        <v>1024</v>
-      </c>
       <c r="G5" t="s">
-        <v>908</v>
+        <v>871</v>
       </c>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
       <c r="N5" t="s">
-        <v>910</v>
+        <v>873</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -7438,20 +7916,20 @@
         <v>59</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="F6" t="s">
         <v>987</v>
       </c>
-      <c r="F6" t="s">
-        <v>1024</v>
-      </c>
       <c r="G6" t="s">
-        <v>913</v>
+        <v>876</v>
       </c>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
       <c r="N6" t="s">
-        <v>910</v>
+        <v>873</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -7465,20 +7943,20 @@
         <v>61</v>
       </c>
       <c r="E7" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="F7" t="s">
         <v>987</v>
       </c>
-      <c r="F7" t="s">
-        <v>1024</v>
-      </c>
       <c r="G7" t="s">
-        <v>914</v>
+        <v>877</v>
       </c>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
       <c r="N7" t="s">
-        <v>910</v>
+        <v>873</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -7492,20 +7970,20 @@
         <v>63</v>
       </c>
       <c r="E8" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="F8" t="s">
         <v>987</v>
       </c>
-      <c r="F8" t="s">
-        <v>1024</v>
-      </c>
       <c r="G8" t="s">
-        <v>911</v>
+        <v>874</v>
       </c>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
       <c r="N8" t="s">
-        <v>910</v>
+        <v>873</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -7519,20 +7997,20 @@
         <v>65</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="F9" t="s">
         <v>987</v>
       </c>
-      <c r="F9" t="s">
-        <v>1024</v>
-      </c>
       <c r="G9" t="s">
-        <v>912</v>
+        <v>875</v>
       </c>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
       <c r="N9" t="s">
-        <v>910</v>
+        <v>873</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -7546,7 +8024,7 @@
         <v>66</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>987</v>
+        <v>950</v>
       </c>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
@@ -7564,19 +8042,19 @@
         <v>68</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>987</v>
+        <v>950</v>
       </c>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
       <c r="L11" s="6" t="s">
-        <v>1022</v>
+        <v>985</v>
       </c>
       <c r="N11" t="s">
-        <v>916</v>
+        <v>879</v>
       </c>
       <c r="O11" t="s">
-        <v>923</v>
+        <v>886</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
@@ -7590,19 +8068,19 @@
         <v>14</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>987</v>
+        <v>950</v>
       </c>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
       <c r="L12" s="6" t="s">
-        <v>1022</v>
+        <v>985</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>1020</v>
+        <v>983</v>
       </c>
       <c r="N12" t="s">
-        <v>916</v>
+        <v>879</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
@@ -7616,7 +8094,7 @@
         <v>72</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>987</v>
+        <v>950</v>
       </c>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
@@ -7634,16 +8112,16 @@
         <v>74</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>987</v>
+        <v>950</v>
       </c>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
       <c r="L14" s="6" t="s">
-        <v>1023</v>
+        <v>986</v>
       </c>
       <c r="O14" t="s">
-        <v>919</v>
+        <v>882</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
@@ -7657,16 +8135,16 @@
         <v>76</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>987</v>
+        <v>950</v>
       </c>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
       <c r="L15" s="6" t="s">
-        <v>1023</v>
+        <v>986</v>
       </c>
       <c r="O15" t="s">
-        <v>919</v>
+        <v>882</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
@@ -7680,7 +8158,7 @@
         <v>78</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>987</v>
+        <v>950</v>
       </c>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
@@ -7698,7 +8176,7 @@
         <v>80</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>987</v>
+        <v>950</v>
       </c>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
@@ -7716,7 +8194,7 @@
         <v>82</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>987</v>
+        <v>950</v>
       </c>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
@@ -7734,7 +8212,7 @@
         <v>84</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>987</v>
+        <v>950</v>
       </c>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
@@ -7749,13 +8227,13 @@
         <v>6</v>
       </c>
       <c r="E20" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="F20" t="s">
         <v>987</v>
       </c>
-      <c r="F20" t="s">
-        <v>1024</v>
-      </c>
       <c r="G20" t="s">
-        <v>922</v>
+        <v>885</v>
       </c>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
@@ -7773,29 +8251,29 @@
         <v>86</v>
       </c>
       <c r="E21" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="F21" t="s">
         <v>987</v>
       </c>
-      <c r="F21" t="s">
-        <v>1024</v>
-      </c>
       <c r="G21" t="s">
-        <v>915</v>
+        <v>878</v>
       </c>
       <c r="I21" s="6"/>
       <c r="J21" s="6" t="s">
-        <v>916</v>
+        <v>879</v>
       </c>
       <c r="K21" s="6">
         <v>1</v>
       </c>
       <c r="L21" s="6" t="s">
-        <v>1022</v>
+        <v>985</v>
       </c>
       <c r="N21" t="s">
-        <v>916</v>
+        <v>879</v>
       </c>
       <c r="O21" t="s">
-        <v>923</v>
+        <v>886</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
@@ -7809,29 +8287,29 @@
         <v>14</v>
       </c>
       <c r="E22" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="F22" t="s">
         <v>987</v>
       </c>
-      <c r="F22" t="s">
-        <v>1024</v>
-      </c>
       <c r="G22" t="s">
-        <v>915</v>
+        <v>878</v>
       </c>
       <c r="I22" s="6"/>
       <c r="J22" s="6" t="s">
-        <v>916</v>
+        <v>879</v>
       </c>
       <c r="K22" s="6">
         <v>1</v>
       </c>
       <c r="L22" s="6" t="s">
-        <v>1022</v>
+        <v>985</v>
       </c>
       <c r="M22" s="6" t="s">
-        <v>1020</v>
+        <v>983</v>
       </c>
       <c r="N22" t="s">
-        <v>916</v>
+        <v>879</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
@@ -7845,13 +8323,13 @@
         <v>89</v>
       </c>
       <c r="E23" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="F23" t="s">
         <v>987</v>
       </c>
-      <c r="F23" t="s">
-        <v>1024</v>
-      </c>
       <c r="G23" t="s">
-        <v>917</v>
+        <v>880</v>
       </c>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
@@ -7869,26 +8347,26 @@
         <v>91</v>
       </c>
       <c r="E24" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="F24" t="s">
         <v>987</v>
       </c>
-      <c r="F24" t="s">
-        <v>1024</v>
-      </c>
       <c r="G24" t="s">
-        <v>918</v>
+        <v>881</v>
       </c>
       <c r="I24" s="6"/>
       <c r="J24" s="6" t="s">
-        <v>916</v>
+        <v>879</v>
       </c>
       <c r="K24" s="6">
         <v>2</v>
       </c>
       <c r="L24" s="6" t="s">
-        <v>1023</v>
+        <v>986</v>
       </c>
       <c r="O24" t="s">
-        <v>919</v>
+        <v>882</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
@@ -7902,26 +8380,26 @@
         <v>93</v>
       </c>
       <c r="E25" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="F25" t="s">
         <v>987</v>
       </c>
-      <c r="F25" t="s">
-        <v>1024</v>
-      </c>
       <c r="G25" t="s">
-        <v>918</v>
+        <v>881</v>
       </c>
       <c r="I25" s="6"/>
       <c r="J25" s="6" t="s">
-        <v>916</v>
+        <v>879</v>
       </c>
       <c r="K25" s="6">
         <v>2</v>
       </c>
       <c r="L25" s="6" t="s">
-        <v>1023</v>
+        <v>986</v>
       </c>
       <c r="O25" t="s">
-        <v>919</v>
+        <v>882</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
@@ -7935,7 +8413,7 @@
         <v>14</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>987</v>
+        <v>950</v>
       </c>
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
@@ -7953,13 +8431,13 @@
         <v>14</v>
       </c>
       <c r="E27" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="F27" t="s">
         <v>987</v>
       </c>
-      <c r="F27" t="s">
-        <v>1024</v>
-      </c>
       <c r="G27" t="s">
-        <v>920</v>
+        <v>883</v>
       </c>
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
@@ -7977,13 +8455,13 @@
         <v>97</v>
       </c>
       <c r="E28" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="F28" t="s">
         <v>987</v>
       </c>
-      <c r="F28" t="s">
-        <v>1024</v>
-      </c>
       <c r="G28" t="s">
-        <v>921</v>
+        <v>884</v>
       </c>
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
@@ -8001,7 +8479,7 @@
         <v>14</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>987</v>
+        <v>950</v>
       </c>
       <c r="I29" s="6"/>
       <c r="J29" s="6"/>
@@ -8019,13 +8497,13 @@
         <v>14</v>
       </c>
       <c r="E30" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="F30" t="s">
         <v>987</v>
       </c>
-      <c r="F30" t="s">
-        <v>1024</v>
-      </c>
       <c r="G30" t="s">
-        <v>925</v>
+        <v>888</v>
       </c>
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>
@@ -8043,13 +8521,13 @@
         <v>14</v>
       </c>
       <c r="E31" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="F31" t="s">
         <v>987</v>
       </c>
-      <c r="F31" t="s">
-        <v>1024</v>
-      </c>
       <c r="G31" t="s">
-        <v>924</v>
+        <v>887</v>
       </c>
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
@@ -8067,13 +8545,13 @@
         <v>14</v>
       </c>
       <c r="E32" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="F32" t="s">
         <v>987</v>
       </c>
-      <c r="F32" t="s">
-        <v>1024</v>
-      </c>
       <c r="G32" t="s">
-        <v>926</v>
+        <v>889</v>
       </c>
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
@@ -8091,13 +8569,13 @@
         <v>14</v>
       </c>
       <c r="E33" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="F33" t="s">
         <v>987</v>
       </c>
-      <c r="F33" t="s">
-        <v>1024</v>
-      </c>
       <c r="G33" t="s">
-        <v>927</v>
+        <v>890</v>
       </c>
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
@@ -8115,14 +8593,14 @@
         <v>103</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>987</v>
+        <v>950</v>
       </c>
       <c r="I34" s="6"/>
       <c r="J34" s="6"/>
       <c r="K34" s="6"/>
       <c r="L34" s="6"/>
       <c r="O34" t="s">
-        <v>898</v>
+        <v>862</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
@@ -8136,13 +8614,13 @@
         <v>105</v>
       </c>
       <c r="E35" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="F35" t="s">
         <v>987</v>
       </c>
-      <c r="F35" t="s">
-        <v>1024</v>
-      </c>
       <c r="G35" t="s">
-        <v>928</v>
+        <v>891</v>
       </c>
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
@@ -8160,13 +8638,13 @@
         <v>107</v>
       </c>
       <c r="E36" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="F36" t="s">
         <v>987</v>
       </c>
-      <c r="F36" t="s">
-        <v>1024</v>
-      </c>
       <c r="G36" t="s">
-        <v>929</v>
+        <v>892</v>
       </c>
       <c r="I36" s="6"/>
       <c r="J36" s="6"/>
@@ -8184,7 +8662,7 @@
         <v>14</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>987</v>
+        <v>950</v>
       </c>
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
@@ -8202,7 +8680,7 @@
         <v>109</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>987</v>
+        <v>950</v>
       </c>
       <c r="I38" s="6"/>
       <c r="J38" s="6"/>
@@ -8220,23 +8698,23 @@
         <v>14</v>
       </c>
       <c r="E39" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="F39" t="s">
         <v>987</v>
       </c>
-      <c r="F39" t="s">
-        <v>1024</v>
-      </c>
       <c r="G39" t="s">
-        <v>930</v>
+        <v>893</v>
       </c>
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
       <c r="K39" s="6"/>
       <c r="L39" s="6"/>
       <c r="N39" t="s">
-        <v>916</v>
+        <v>879</v>
       </c>
       <c r="O39" t="s">
-        <v>931</v>
+        <v>894</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
@@ -8250,14 +8728,14 @@
         <v>14</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>987</v>
+        <v>950</v>
       </c>
       <c r="I40" s="6"/>
       <c r="J40" s="6"/>
       <c r="K40" s="6"/>
       <c r="L40" s="6"/>
       <c r="Q40" t="s">
-        <v>988</v>
+        <v>951</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
@@ -8271,23 +8749,23 @@
         <v>14</v>
       </c>
       <c r="E41" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="F41" t="s">
         <v>987</v>
       </c>
-      <c r="F41" t="s">
-        <v>1024</v>
-      </c>
       <c r="G41" t="s">
-        <v>1025</v>
+        <v>988</v>
       </c>
       <c r="I41" s="6"/>
       <c r="J41" s="6"/>
       <c r="K41" s="6"/>
       <c r="L41" s="6"/>
       <c r="N41" t="s">
-        <v>916</v>
+        <v>879</v>
       </c>
       <c r="O41" t="s">
-        <v>932</v>
+        <v>895</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
@@ -8301,23 +8779,23 @@
         <v>114</v>
       </c>
       <c r="E42" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="F42" t="s">
         <v>987</v>
       </c>
-      <c r="F42" t="s">
-        <v>1024</v>
-      </c>
       <c r="G42" t="s">
-        <v>1025</v>
+        <v>988</v>
       </c>
       <c r="I42" s="6"/>
       <c r="J42" s="6"/>
       <c r="K42" s="6"/>
       <c r="L42" s="6"/>
       <c r="N42" t="s">
-        <v>916</v>
+        <v>879</v>
       </c>
       <c r="O42" t="s">
-        <v>932</v>
+        <v>895</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
@@ -8331,17 +8809,17 @@
         <v>86</v>
       </c>
       <c r="E43" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="F43" t="s">
         <v>987</v>
-      </c>
-      <c r="F43" t="s">
-        <v>1024</v>
       </c>
       <c r="I43" s="6"/>
       <c r="J43" s="6"/>
       <c r="K43" s="6"/>
       <c r="L43" s="6"/>
       <c r="N43" t="s">
-        <v>933</v>
+        <v>896</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
@@ -8355,17 +8833,17 @@
         <v>14</v>
       </c>
       <c r="E44" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="F44" t="s">
         <v>987</v>
-      </c>
-      <c r="F44" t="s">
-        <v>1024</v>
       </c>
       <c r="I44" s="6"/>
       <c r="J44" s="6"/>
       <c r="K44" s="6"/>
       <c r="L44" s="6"/>
       <c r="N44" t="s">
-        <v>933</v>
+        <v>896</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
@@ -8379,17 +8857,17 @@
         <v>89</v>
       </c>
       <c r="E45" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="F45" t="s">
         <v>987</v>
-      </c>
-      <c r="F45" t="s">
-        <v>1024</v>
       </c>
       <c r="I45" s="6"/>
       <c r="J45" s="6"/>
       <c r="K45" s="6"/>
       <c r="L45" s="6"/>
       <c r="N45" t="s">
-        <v>933</v>
+        <v>896</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
@@ -8403,20 +8881,20 @@
         <v>91</v>
       </c>
       <c r="E46" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="F46" t="s">
         <v>987</v>
-      </c>
-      <c r="F46" t="s">
-        <v>1024</v>
       </c>
       <c r="I46" s="6"/>
       <c r="J46" s="6"/>
       <c r="K46" s="6"/>
       <c r="L46" s="6"/>
       <c r="N46" t="s">
-        <v>933</v>
+        <v>896</v>
       </c>
       <c r="O46" t="s">
-        <v>934</v>
+        <v>897</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
@@ -8430,20 +8908,20 @@
         <v>93</v>
       </c>
       <c r="E47" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="F47" t="s">
         <v>987</v>
-      </c>
-      <c r="F47" t="s">
-        <v>1024</v>
       </c>
       <c r="I47" s="6"/>
       <c r="J47" s="6"/>
       <c r="K47" s="6"/>
       <c r="L47" s="6"/>
       <c r="N47" t="s">
-        <v>933</v>
+        <v>896</v>
       </c>
       <c r="O47" t="s">
-        <v>934</v>
+        <v>897</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
@@ -8457,7 +8935,7 @@
         <v>14</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>987</v>
+        <v>950</v>
       </c>
       <c r="I48" s="6"/>
       <c r="K48" s="6"/>
@@ -8474,17 +8952,17 @@
         <v>14</v>
       </c>
       <c r="E49" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="F49" t="s">
         <v>987</v>
-      </c>
-      <c r="F49" t="s">
-        <v>1024</v>
       </c>
       <c r="I49" s="6"/>
       <c r="J49" s="6"/>
       <c r="K49" s="6"/>
       <c r="L49" s="6"/>
       <c r="N49" t="s">
-        <v>933</v>
+        <v>896</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
@@ -8498,17 +8976,17 @@
         <v>123</v>
       </c>
       <c r="E50" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="F50" t="s">
         <v>987</v>
-      </c>
-      <c r="F50" t="s">
-        <v>1024</v>
       </c>
       <c r="I50" s="6"/>
       <c r="J50" s="6"/>
       <c r="K50" s="6"/>
       <c r="L50" s="6"/>
       <c r="N50" t="s">
-        <v>933</v>
+        <v>896</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
@@ -8522,17 +9000,17 @@
         <v>97</v>
       </c>
       <c r="E51" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="F51" t="s">
         <v>987</v>
-      </c>
-      <c r="F51" t="s">
-        <v>1024</v>
       </c>
       <c r="I51" s="6"/>
       <c r="J51" s="6"/>
       <c r="K51" s="6"/>
       <c r="L51" s="6"/>
       <c r="N51" t="s">
-        <v>933</v>
+        <v>896</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
@@ -8546,7 +9024,7 @@
         <v>43</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>987</v>
+        <v>950</v>
       </c>
       <c r="I52" s="6"/>
       <c r="J52" s="6"/>
@@ -8564,35 +9042,35 @@
         <v>127</v>
       </c>
       <c r="E53" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="F53" t="s">
         <v>987</v>
       </c>
-      <c r="F53" t="s">
-        <v>1024</v>
-      </c>
       <c r="G53" t="s">
-        <v>930</v>
+        <v>893</v>
       </c>
       <c r="I53" s="6"/>
       <c r="J53" s="6" t="s">
-        <v>916</v>
+        <v>879</v>
       </c>
       <c r="K53" s="6">
         <v>1</v>
       </c>
       <c r="L53" s="6" t="s">
-        <v>1022</v>
+        <v>985</v>
       </c>
       <c r="M53" t="s">
-        <v>997</v>
+        <v>960</v>
       </c>
       <c r="N53" t="s">
-        <v>916</v>
+        <v>879</v>
       </c>
       <c r="O53" t="s">
-        <v>931</v>
+        <v>894</v>
       </c>
       <c r="P53" t="s">
-        <v>996</v>
+        <v>959</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
@@ -8606,35 +9084,35 @@
         <v>129</v>
       </c>
       <c r="E54" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="F54" t="s">
         <v>987</v>
       </c>
-      <c r="F54" t="s">
-        <v>1024</v>
-      </c>
       <c r="G54" t="s">
-        <v>930</v>
+        <v>893</v>
       </c>
       <c r="I54" s="6"/>
       <c r="J54" s="6" t="s">
-        <v>916</v>
+        <v>879</v>
       </c>
       <c r="K54" s="6">
         <v>1</v>
       </c>
       <c r="L54" s="6" t="s">
-        <v>1022</v>
+        <v>985</v>
       </c>
       <c r="M54" t="s">
-        <v>998</v>
+        <v>961</v>
       </c>
       <c r="N54" t="s">
-        <v>916</v>
+        <v>879</v>
       </c>
       <c r="O54" t="s">
-        <v>931</v>
+        <v>894</v>
       </c>
       <c r="P54" t="s">
-        <v>996</v>
+        <v>959</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
@@ -8648,35 +9126,35 @@
         <v>131</v>
       </c>
       <c r="E55" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="F55" t="s">
         <v>987</v>
       </c>
-      <c r="F55" t="s">
-        <v>1024</v>
-      </c>
       <c r="G55" t="s">
-        <v>930</v>
+        <v>893</v>
       </c>
       <c r="I55" s="6"/>
       <c r="J55" s="6" t="s">
-        <v>916</v>
+        <v>879</v>
       </c>
       <c r="K55" s="6">
         <v>1</v>
       </c>
       <c r="L55" s="6" t="s">
-        <v>1022</v>
+        <v>985</v>
       </c>
       <c r="M55" t="s">
-        <v>999</v>
+        <v>962</v>
       </c>
       <c r="N55" t="s">
-        <v>916</v>
+        <v>879</v>
       </c>
       <c r="O55" t="s">
-        <v>931</v>
+        <v>894</v>
       </c>
       <c r="P55" t="s">
-        <v>996</v>
+        <v>959</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
@@ -8690,35 +9168,35 @@
         <v>133</v>
       </c>
       <c r="E56" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="F56" t="s">
         <v>987</v>
       </c>
-      <c r="F56" t="s">
-        <v>1024</v>
-      </c>
       <c r="G56" t="s">
-        <v>930</v>
+        <v>893</v>
       </c>
       <c r="I56" s="6"/>
       <c r="J56" s="6" t="s">
-        <v>916</v>
+        <v>879</v>
       </c>
       <c r="K56" s="6">
         <v>1</v>
       </c>
       <c r="L56" s="6" t="s">
-        <v>1022</v>
+        <v>985</v>
       </c>
       <c r="M56" t="s">
-        <v>1000</v>
+        <v>963</v>
       </c>
       <c r="N56" t="s">
-        <v>916</v>
+        <v>879</v>
       </c>
       <c r="O56" t="s">
-        <v>931</v>
+        <v>894</v>
       </c>
       <c r="P56" t="s">
-        <v>996</v>
+        <v>959</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
@@ -8732,35 +9210,35 @@
         <v>135</v>
       </c>
       <c r="E57" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="F57" t="s">
         <v>987</v>
       </c>
-      <c r="F57" t="s">
-        <v>1024</v>
-      </c>
       <c r="G57" t="s">
-        <v>930</v>
+        <v>893</v>
       </c>
       <c r="I57" s="6"/>
       <c r="J57" s="6" t="s">
-        <v>916</v>
+        <v>879</v>
       </c>
       <c r="K57" s="6">
         <v>1</v>
       </c>
       <c r="L57" s="6" t="s">
-        <v>1022</v>
+        <v>985</v>
       </c>
       <c r="M57" t="s">
-        <v>1001</v>
+        <v>964</v>
       </c>
       <c r="N57" t="s">
-        <v>916</v>
+        <v>879</v>
       </c>
       <c r="O57" t="s">
-        <v>931</v>
+        <v>894</v>
       </c>
       <c r="P57" t="s">
-        <v>996</v>
+        <v>959</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
@@ -8774,35 +9252,35 @@
         <v>137</v>
       </c>
       <c r="E58" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="F58" t="s">
         <v>987</v>
       </c>
-      <c r="F58" t="s">
-        <v>1024</v>
-      </c>
       <c r="G58" t="s">
-        <v>930</v>
+        <v>893</v>
       </c>
       <c r="I58" s="6"/>
       <c r="J58" s="6" t="s">
-        <v>916</v>
+        <v>879</v>
       </c>
       <c r="K58" s="6">
         <v>1</v>
       </c>
       <c r="L58" s="6" t="s">
-        <v>1022</v>
+        <v>985</v>
       </c>
       <c r="M58" t="s">
-        <v>1002</v>
+        <v>965</v>
       </c>
       <c r="N58" t="s">
-        <v>916</v>
+        <v>879</v>
       </c>
       <c r="O58" t="s">
-        <v>931</v>
+        <v>894</v>
       </c>
       <c r="P58" t="s">
-        <v>996</v>
+        <v>959</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
@@ -8816,35 +9294,35 @@
         <v>14</v>
       </c>
       <c r="E59" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="F59" t="s">
         <v>987</v>
       </c>
-      <c r="F59" t="s">
-        <v>1024</v>
-      </c>
       <c r="G59" t="s">
-        <v>930</v>
+        <v>893</v>
       </c>
       <c r="I59" s="6"/>
       <c r="J59" s="6" t="s">
-        <v>916</v>
+        <v>879</v>
       </c>
       <c r="K59" s="6">
         <v>1</v>
       </c>
       <c r="L59" s="6" t="s">
-        <v>1022</v>
+        <v>985</v>
       </c>
       <c r="M59" t="s">
-        <v>1003</v>
+        <v>966</v>
       </c>
       <c r="N59" t="s">
-        <v>916</v>
+        <v>879</v>
       </c>
       <c r="O59" t="s">
-        <v>931</v>
+        <v>894</v>
       </c>
       <c r="P59" t="s">
-        <v>996</v>
+        <v>959</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
@@ -8858,35 +9336,35 @@
         <v>14</v>
       </c>
       <c r="E60" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="F60" t="s">
         <v>987</v>
       </c>
-      <c r="F60" t="s">
-        <v>1024</v>
-      </c>
       <c r="G60" t="s">
-        <v>930</v>
+        <v>893</v>
       </c>
       <c r="I60" s="6"/>
       <c r="J60" s="6" t="s">
-        <v>916</v>
+        <v>879</v>
       </c>
       <c r="K60" s="6">
         <v>1</v>
       </c>
       <c r="L60" s="6" t="s">
-        <v>1022</v>
+        <v>985</v>
       </c>
       <c r="M60" t="s">
-        <v>1004</v>
+        <v>967</v>
       </c>
       <c r="N60" t="s">
-        <v>916</v>
+        <v>879</v>
       </c>
       <c r="O60" t="s">
-        <v>931</v>
+        <v>894</v>
       </c>
       <c r="P60" t="s">
-        <v>996</v>
+        <v>959</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
@@ -8900,35 +9378,35 @@
         <v>131</v>
       </c>
       <c r="E61" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="F61" t="s">
         <v>987</v>
       </c>
-      <c r="F61" t="s">
-        <v>1024</v>
-      </c>
       <c r="G61" t="s">
-        <v>930</v>
+        <v>893</v>
       </c>
       <c r="I61" s="6"/>
       <c r="J61" s="6" t="s">
-        <v>916</v>
+        <v>879</v>
       </c>
       <c r="K61" s="6">
         <v>1</v>
       </c>
       <c r="L61" s="6" t="s">
-        <v>1022</v>
+        <v>985</v>
       </c>
       <c r="M61" t="s">
-        <v>1005</v>
+        <v>968</v>
       </c>
       <c r="N61" t="s">
-        <v>916</v>
+        <v>879</v>
       </c>
       <c r="O61" t="s">
-        <v>931</v>
+        <v>894</v>
       </c>
       <c r="P61" t="s">
-        <v>996</v>
+        <v>959</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
@@ -8942,35 +9420,35 @@
         <v>142</v>
       </c>
       <c r="E62" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="F62" t="s">
         <v>987</v>
       </c>
-      <c r="F62" t="s">
-        <v>1024</v>
-      </c>
       <c r="G62" t="s">
-        <v>930</v>
+        <v>893</v>
       </c>
       <c r="I62" s="6"/>
       <c r="J62" s="6" t="s">
-        <v>916</v>
+        <v>879</v>
       </c>
       <c r="K62" s="6">
         <v>1</v>
       </c>
       <c r="L62" s="6" t="s">
-        <v>1022</v>
+        <v>985</v>
       </c>
       <c r="M62" t="s">
-        <v>1006</v>
+        <v>969</v>
       </c>
       <c r="N62" t="s">
-        <v>916</v>
+        <v>879</v>
       </c>
       <c r="O62" t="s">
-        <v>931</v>
+        <v>894</v>
       </c>
       <c r="P62" t="s">
-        <v>996</v>
+        <v>959</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
@@ -8984,35 +9462,35 @@
         <v>144</v>
       </c>
       <c r="E63" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="F63" t="s">
         <v>987</v>
       </c>
-      <c r="F63" t="s">
-        <v>1024</v>
-      </c>
       <c r="G63" t="s">
-        <v>930</v>
+        <v>893</v>
       </c>
       <c r="I63" s="6"/>
       <c r="J63" s="6" t="s">
-        <v>916</v>
+        <v>879</v>
       </c>
       <c r="K63" s="6">
         <v>1</v>
       </c>
       <c r="L63" s="6" t="s">
-        <v>1022</v>
+        <v>985</v>
       </c>
       <c r="M63" t="s">
-        <v>1007</v>
+        <v>970</v>
       </c>
       <c r="N63" t="s">
-        <v>916</v>
+        <v>879</v>
       </c>
       <c r="O63" t="s">
-        <v>931</v>
+        <v>894</v>
       </c>
       <c r="P63" t="s">
-        <v>996</v>
+        <v>959</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
@@ -9026,35 +9504,35 @@
         <v>146</v>
       </c>
       <c r="E64" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="F64" t="s">
         <v>987</v>
       </c>
-      <c r="F64" t="s">
-        <v>1024</v>
-      </c>
       <c r="G64" t="s">
-        <v>930</v>
+        <v>893</v>
       </c>
       <c r="I64" s="6"/>
       <c r="J64" s="6" t="s">
-        <v>916</v>
+        <v>879</v>
       </c>
       <c r="K64" s="6">
         <v>1</v>
       </c>
       <c r="L64" s="6" t="s">
-        <v>1022</v>
+        <v>985</v>
       </c>
       <c r="M64" t="s">
-        <v>1008</v>
+        <v>971</v>
       </c>
       <c r="N64" t="s">
-        <v>916</v>
+        <v>879</v>
       </c>
       <c r="O64" t="s">
-        <v>931</v>
+        <v>894</v>
       </c>
       <c r="P64" t="s">
-        <v>996</v>
+        <v>959</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
@@ -9068,35 +9546,35 @@
         <v>14</v>
       </c>
       <c r="E65" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="F65" t="s">
         <v>987</v>
       </c>
-      <c r="F65" t="s">
-        <v>1024</v>
-      </c>
       <c r="G65" t="s">
-        <v>930</v>
+        <v>893</v>
       </c>
       <c r="I65" s="6"/>
       <c r="J65" s="6" t="s">
-        <v>916</v>
+        <v>879</v>
       </c>
       <c r="K65" s="6">
         <v>1</v>
       </c>
       <c r="L65" s="6" t="s">
-        <v>1022</v>
+        <v>985</v>
       </c>
       <c r="M65" t="s">
-        <v>1009</v>
+        <v>972</v>
       </c>
       <c r="N65" t="s">
-        <v>916</v>
+        <v>879</v>
       </c>
       <c r="O65" t="s">
-        <v>931</v>
+        <v>894</v>
       </c>
       <c r="P65" t="s">
-        <v>996</v>
+        <v>959</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
@@ -9110,35 +9588,35 @@
         <v>14</v>
       </c>
       <c r="E66" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="F66" t="s">
         <v>987</v>
       </c>
-      <c r="F66" t="s">
-        <v>1024</v>
-      </c>
       <c r="G66" t="s">
-        <v>930</v>
+        <v>893</v>
       </c>
       <c r="I66" s="6"/>
       <c r="J66" s="6" t="s">
-        <v>916</v>
+        <v>879</v>
       </c>
       <c r="K66" s="6">
         <v>1</v>
       </c>
       <c r="L66" s="6" t="s">
-        <v>1022</v>
+        <v>985</v>
       </c>
       <c r="M66" t="s">
-        <v>1010</v>
+        <v>973</v>
       </c>
       <c r="N66" t="s">
-        <v>916</v>
+        <v>879</v>
       </c>
       <c r="O66" t="s">
-        <v>931</v>
+        <v>894</v>
       </c>
       <c r="P66" t="s">
-        <v>996</v>
+        <v>959</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.25">
@@ -9152,35 +9630,35 @@
         <v>14</v>
       </c>
       <c r="E67" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="F67" t="s">
         <v>987</v>
       </c>
-      <c r="F67" t="s">
-        <v>1024</v>
-      </c>
       <c r="G67" t="s">
-        <v>930</v>
+        <v>893</v>
       </c>
       <c r="I67" s="6"/>
       <c r="J67" s="6" t="s">
-        <v>916</v>
+        <v>879</v>
       </c>
       <c r="K67" s="6">
         <v>1</v>
       </c>
       <c r="L67" s="6" t="s">
-        <v>1022</v>
+        <v>985</v>
       </c>
       <c r="M67" t="s">
-        <v>1011</v>
+        <v>974</v>
       </c>
       <c r="N67" t="s">
-        <v>916</v>
+        <v>879</v>
       </c>
       <c r="O67" t="s">
-        <v>931</v>
+        <v>894</v>
       </c>
       <c r="P67" t="s">
-        <v>996</v>
+        <v>959</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.25">
@@ -9194,35 +9672,35 @@
         <v>14</v>
       </c>
       <c r="E68" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="F68" t="s">
         <v>987</v>
       </c>
-      <c r="F68" t="s">
-        <v>1024</v>
-      </c>
       <c r="G68" t="s">
-        <v>930</v>
+        <v>893</v>
       </c>
       <c r="I68" s="6"/>
       <c r="J68" s="6" t="s">
-        <v>916</v>
+        <v>879</v>
       </c>
       <c r="K68" s="6">
         <v>1</v>
       </c>
       <c r="L68" s="6" t="s">
-        <v>1022</v>
+        <v>985</v>
       </c>
       <c r="M68" t="s">
-        <v>1012</v>
+        <v>975</v>
       </c>
       <c r="N68" t="s">
-        <v>916</v>
+        <v>879</v>
       </c>
       <c r="O68" t="s">
-        <v>931</v>
+        <v>894</v>
       </c>
       <c r="P68" t="s">
-        <v>996</v>
+        <v>959</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.25">
@@ -9236,7 +9714,7 @@
         <v>14</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>987</v>
+        <v>950</v>
       </c>
       <c r="I69" s="6"/>
       <c r="J69" s="6"/>
@@ -9254,31 +9732,31 @@
         <v>153</v>
       </c>
       <c r="E70" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="F70" t="s">
         <v>987</v>
       </c>
-      <c r="F70" t="s">
-        <v>1024</v>
-      </c>
       <c r="G70" t="s">
-        <v>930</v>
+        <v>893</v>
       </c>
       <c r="I70" s="6"/>
       <c r="J70" s="6" t="s">
-        <v>916</v>
+        <v>879</v>
       </c>
       <c r="K70" s="6"/>
       <c r="L70" s="6"/>
       <c r="M70" t="s">
-        <v>1013</v>
+        <v>976</v>
       </c>
       <c r="N70" t="s">
-        <v>916</v>
+        <v>879</v>
       </c>
       <c r="O70" t="s">
-        <v>931</v>
+        <v>894</v>
       </c>
       <c r="P70" t="s">
-        <v>996</v>
+        <v>959</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
@@ -9292,31 +9770,31 @@
         <v>155</v>
       </c>
       <c r="E71" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="F71" t="s">
         <v>987</v>
       </c>
-      <c r="F71" t="s">
-        <v>1024</v>
-      </c>
       <c r="G71" t="s">
-        <v>930</v>
+        <v>893</v>
       </c>
       <c r="I71" s="6"/>
       <c r="J71" s="6" t="s">
-        <v>916</v>
+        <v>879</v>
       </c>
       <c r="K71" s="6"/>
       <c r="L71" s="6"/>
       <c r="M71" t="s">
-        <v>1014</v>
+        <v>977</v>
       </c>
       <c r="N71" t="s">
-        <v>916</v>
+        <v>879</v>
       </c>
       <c r="O71" t="s">
-        <v>931</v>
+        <v>894</v>
       </c>
       <c r="P71" t="s">
-        <v>996</v>
+        <v>959</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.25">
@@ -9330,13 +9808,13 @@
         <v>14</v>
       </c>
       <c r="E72" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="F72" t="s">
         <v>987</v>
       </c>
-      <c r="F72" t="s">
-        <v>1024</v>
-      </c>
       <c r="G72" t="s">
-        <v>935</v>
+        <v>898</v>
       </c>
       <c r="I72" s="6"/>
       <c r="J72" s="6"/>
@@ -9354,13 +9832,13 @@
         <v>14</v>
       </c>
       <c r="E73" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="F73" t="s">
         <v>987</v>
       </c>
-      <c r="F73" t="s">
-        <v>1024</v>
-      </c>
       <c r="G73" t="s">
-        <v>936</v>
+        <v>899</v>
       </c>
       <c r="I73" s="6"/>
       <c r="J73" s="6"/>
@@ -9369,16 +9847,16 @@
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>993</v>
+        <v>956</v>
       </c>
       <c r="B74" t="s">
         <v>6</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>994</v>
+        <v>957</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>987</v>
+        <v>950</v>
       </c>
       <c r="I74" s="6"/>
       <c r="J74" s="6"/>
@@ -9396,13 +9874,13 @@
         <v>158</v>
       </c>
       <c r="E75" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="F75" t="s">
         <v>987</v>
       </c>
-      <c r="F75" t="s">
-        <v>1024</v>
-      </c>
       <c r="G75" t="s">
-        <v>937</v>
+        <v>900</v>
       </c>
       <c r="I75" s="6"/>
       <c r="J75" s="6"/>
@@ -9420,13 +9898,13 @@
         <v>160</v>
       </c>
       <c r="E76" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="F76" t="s">
         <v>987</v>
       </c>
-      <c r="F76" t="s">
-        <v>1024</v>
-      </c>
       <c r="G76" t="s">
-        <v>1016</v>
+        <v>979</v>
       </c>
       <c r="I76" s="6"/>
       <c r="J76" s="6"/>
@@ -9444,7 +9922,7 @@
         <v>161</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>987</v>
+        <v>950</v>
       </c>
     </row>
   </sheetData>
@@ -9458,12 +9936,110 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>902</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>901</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>993</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>903</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>980</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>981</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>982</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>984</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>906</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>904</v>
+      </c>
+      <c r="Q1" s="12" t="s">
+        <v>905</v>
+      </c>
+      <c r="R1" s="12" t="s">
+        <v>958</v>
+      </c>
+      <c r="S1" s="12" t="s">
+        <v>858</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:S43"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9471,9 +10047,10 @@
     <col min="1" max="1" width="46.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="105.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="152.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="152.28515625" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9486,11 +10063,53 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="12" t="s">
+        <v>1002</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>902</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>901</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>993</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>903</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>980</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>981</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>982</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>984</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>906</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>904</v>
+      </c>
+      <c r="Q1" s="12" t="s">
+        <v>905</v>
+      </c>
+      <c r="R1" s="12" t="s">
+        <v>958</v>
+      </c>
+      <c r="S1" s="12" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -9501,10 +10120,13 @@
         <v>162</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>907</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -9515,10 +10137,11 @@
         <v>163</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>908</v>
+      </c>
+      <c r="F3" s="13"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>164</v>
       </c>
@@ -9529,10 +10152,11 @@
         <v>14</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>909</v>
+      </c>
+      <c r="F4" s="13"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>165</v>
       </c>
@@ -9543,10 +10167,11 @@
         <v>14</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>910</v>
+      </c>
+      <c r="F5" s="13"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>166</v>
       </c>
@@ -9557,10 +10182,11 @@
         <v>167</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>911</v>
+      </c>
+      <c r="F6" s="13"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>168</v>
       </c>
@@ -9571,10 +10197,11 @@
         <v>169</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>912</v>
+      </c>
+      <c r="F7" s="13"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>170</v>
       </c>
@@ -9585,10 +10212,11 @@
         <v>14</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>913</v>
+      </c>
+      <c r="F8" s="13"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>171</v>
       </c>
@@ -9599,10 +10227,11 @@
         <v>172</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>914</v>
+      </c>
+      <c r="F9" s="13"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>173</v>
       </c>
@@ -9613,10 +10242,11 @@
         <v>174</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>915</v>
+      </c>
+      <c r="F10" s="13"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>175</v>
       </c>
@@ -9627,10 +10257,11 @@
         <v>176</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>916</v>
+      </c>
+      <c r="F11" s="13"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>177</v>
       </c>
@@ -9641,10 +10272,11 @@
         <v>178</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>917</v>
+      </c>
+      <c r="F12" s="13"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>179</v>
       </c>
@@ -9655,10 +10287,11 @@
         <v>14</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>918</v>
+      </c>
+      <c r="F13" s="13"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>180</v>
       </c>
@@ -9669,10 +10302,11 @@
         <v>84</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>919</v>
+      </c>
+      <c r="F14" s="13"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -9683,10 +10317,11 @@
         <v>181</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>920</v>
+      </c>
+      <c r="F15" s="13"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -9694,10 +10329,11 @@
         <v>6</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>921</v>
+      </c>
+      <c r="F16" s="13"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>182</v>
       </c>
@@ -9708,10 +10344,11 @@
         <v>14</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>922</v>
+      </c>
+      <c r="F17" s="13"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>183</v>
       </c>
@@ -9722,10 +10359,11 @@
         <v>68</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>923</v>
+      </c>
+      <c r="F18" s="13"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>184</v>
       </c>
@@ -9736,10 +10374,11 @@
         <v>14</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>924</v>
+      </c>
+      <c r="F19" s="13"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>185</v>
       </c>
@@ -9750,10 +10389,11 @@
         <v>14</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>925</v>
+      </c>
+      <c r="F20" s="13"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -9764,10 +10404,11 @@
         <v>186</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>926</v>
+      </c>
+      <c r="F21" s="13"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>187</v>
       </c>
@@ -9778,10 +10419,11 @@
         <v>14</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>927</v>
+      </c>
+      <c r="F22" s="13"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>188</v>
       </c>
@@ -9792,10 +10434,11 @@
         <v>14</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>928</v>
+      </c>
+      <c r="F23" s="13"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>189</v>
       </c>
@@ -9806,10 +10449,11 @@
         <v>14</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>929</v>
+      </c>
+      <c r="F24" s="13"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>190</v>
       </c>
@@ -9820,10 +10464,11 @@
         <v>14</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <v>930</v>
+      </c>
+      <c r="F25" s="13"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>191</v>
       </c>
@@ -9834,10 +10479,11 @@
         <v>192</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <v>931</v>
+      </c>
+      <c r="F26" s="13"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -9848,10 +10494,11 @@
         <v>193</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <v>932</v>
+      </c>
+      <c r="F27" s="13"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>194</v>
       </c>
@@ -9862,10 +10509,11 @@
         <v>14</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+        <v>933</v>
+      </c>
+      <c r="F28" s="13"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>195</v>
       </c>
@@ -9876,10 +10524,11 @@
         <v>196</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+        <v>934</v>
+      </c>
+      <c r="F29" s="13"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>197</v>
       </c>
@@ -9890,10 +10539,11 @@
         <v>14</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+        <v>935</v>
+      </c>
+      <c r="F30" s="13"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>198</v>
       </c>
@@ -9904,10 +10554,11 @@
         <v>14</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+        <v>936</v>
+      </c>
+      <c r="F31" s="13"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>199</v>
       </c>
@@ -9918,10 +10569,11 @@
         <v>14</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <v>937</v>
+      </c>
+      <c r="F32" s="13"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>200</v>
       </c>
@@ -9932,10 +10584,11 @@
         <v>201</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+        <v>938</v>
+      </c>
+      <c r="F33" s="13"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>202</v>
       </c>
@@ -9946,10 +10599,11 @@
         <v>14</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+        <v>939</v>
+      </c>
+      <c r="F34" s="13"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>203</v>
       </c>
@@ -9960,10 +10614,11 @@
         <v>14</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+        <v>940</v>
+      </c>
+      <c r="F35" s="13"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>42</v>
       </c>
@@ -9974,10 +10629,11 @@
         <v>43</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+        <v>941</v>
+      </c>
+      <c r="F36" s="13"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>204</v>
       </c>
@@ -9988,10 +10644,11 @@
         <v>14</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+        <v>942</v>
+      </c>
+      <c r="F37" s="13"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>47</v>
       </c>
@@ -10002,10 +10659,11 @@
         <v>205</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+        <v>943</v>
+      </c>
+      <c r="F38" s="13"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>206</v>
       </c>
@@ -10016,10 +10674,11 @@
         <v>207</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+        <v>944</v>
+      </c>
+      <c r="F39" s="13"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>48</v>
       </c>
@@ -10030,10 +10689,11 @@
         <v>208</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+        <v>945</v>
+      </c>
+      <c r="F40" s="13"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>209</v>
       </c>
@@ -10044,10 +10704,11 @@
         <v>14</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+        <v>946</v>
+      </c>
+      <c r="F41" s="13"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>210</v>
       </c>
@@ -10058,10 +10719,11 @@
         <v>14</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+        <v>947</v>
+      </c>
+      <c r="F42" s="13"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>211</v>
       </c>
@@ -10072,8 +10734,9 @@
         <v>212</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>985</v>
-      </c>
+        <v>948</v>
+      </c>
+      <c r="F43" s="13"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -10130,7 +10793,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -11551,9 +12216,132 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="20.28515625" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" customWidth="1"/>
+    <col min="8" max="8" width="23.28515625" customWidth="1"/>
+    <col min="9" max="11" width="22.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>902</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>901</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>993</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>903</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>980</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>981</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>982</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>984</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>906</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>904</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>905</v>
+      </c>
+      <c r="Q1" s="12" t="s">
+        <v>958</v>
+      </c>
+      <c r="R1" s="12" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>949</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>949</v>
+      </c>
+      <c r="F3" t="s">
+        <v>373</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E3" r:id="rId1" display="http://collections.naturalsciences.be/cpb/nh-collections/countries/belgium/be-rbins/?@id"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -11561,9 +12349,13 @@
     <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="103.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.140625" customWidth="1"/>
+    <col min="6" max="6" width="23.85546875" customWidth="1"/>
+    <col min="7" max="7" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11576,11 +12368,53 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="12" t="s">
+        <v>902</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>901</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>993</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>903</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>980</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>981</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>982</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>984</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>906</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>904</v>
+      </c>
+      <c r="Q1" s="12" t="s">
+        <v>905</v>
+      </c>
+      <c r="R1" s="12" t="s">
+        <v>958</v>
+      </c>
+      <c r="S1" s="12" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -11590,11 +12424,11 @@
       <c r="D2" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E2" s="13" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -11602,13 +12436,11 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>374</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>373</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -11616,26 +12448,22 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>376</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>374</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
@@ -11643,11 +12471,9 @@
       <c r="D6" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -11655,15 +12481,13 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>381</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>376</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
@@ -11672,12 +12496,21 @@
         <v>14</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1005</v>
+      </c>
+      <c r="F8" t="s">
+        <v>373</v>
+      </c>
+      <c r="G8" t="s">
+        <v>1004</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
@@ -11686,10 +12519,19 @@
         <v>14</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1005</v>
+      </c>
+      <c r="F9" t="s">
+        <v>373</v>
+      </c>
+      <c r="G9" t="s">
+        <v>1003</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -11697,15 +12539,13 @@
         <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>387</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>379</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
@@ -11713,11 +12553,9 @@
       <c r="D11" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>42</v>
       </c>
@@ -11727,11 +12565,9 @@
       <c r="D12" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>47</v>
       </c>
@@ -11739,13 +12575,11 @@
         <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>392</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>381</v>
+      </c>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>48</v>
       </c>
@@ -11753,34 +12587,46 @@
         <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>394</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>395</v>
+        <v>382</v>
+      </c>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>950</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>1008</v>
+      </c>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="N15" s="11" t="s">
+        <v>873</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="E2" r:id="rId2"/>
-    <hyperlink ref="E3" r:id="rId3"/>
-    <hyperlink ref="E4" r:id="rId4"/>
-    <hyperlink ref="E5" r:id="rId5"/>
-    <hyperlink ref="E6" r:id="rId6"/>
-    <hyperlink ref="E7" r:id="rId7"/>
-    <hyperlink ref="E8" r:id="rId8"/>
-    <hyperlink ref="E9" r:id="rId9"/>
-    <hyperlink ref="E10" r:id="rId10"/>
-    <hyperlink ref="E11" r:id="rId11"/>
-    <hyperlink ref="E12" r:id="rId12"/>
-    <hyperlink ref="E13" r:id="rId13"/>
-    <hyperlink ref="E14" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
@@ -11790,6 +12636,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="46.28515625" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="128.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -11819,10 +12666,10 @@
         <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>397</v>
+        <v>384</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -11833,15 +12680,15 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
@@ -11850,7 +12697,7 @@
         <v>14</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>401</v>
+        <v>388</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -11861,10 +12708,10 @@
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -11875,12 +12722,12 @@
         <v>6</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>404</v>
+        <v>391</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>405</v>
+        <v>392</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
@@ -11889,12 +12736,12 @@
         <v>14</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>406</v>
+        <v>393</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
@@ -11903,12 +12750,12 @@
         <v>14</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>408</v>
+        <v>395</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>409</v>
+        <v>396</v>
       </c>
       <c r="B9" t="s">
         <v>45</v>
@@ -11917,12 +12764,12 @@
         <v>68</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
       <c r="B10" t="s">
         <v>70</v>
@@ -11931,12 +12778,12 @@
         <v>14</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="B11" t="s">
         <v>70</v>
@@ -11945,12 +12792,12 @@
         <v>14</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
       <c r="B12" t="s">
         <v>70</v>
@@ -11959,12 +12806,12 @@
         <v>14</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -11973,12 +12820,12 @@
         <v>14</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="B14" t="s">
         <v>70</v>
@@ -11987,12 +12834,12 @@
         <v>14</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="B15" t="s">
         <v>70</v>
@@ -12001,12 +12848,12 @@
         <v>14</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>422</v>
+        <v>409</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="B16" t="s">
         <v>70</v>
@@ -12015,12 +12862,12 @@
         <v>14</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="B17" t="s">
         <v>45</v>
@@ -12029,12 +12876,12 @@
         <v>68</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>426</v>
+        <v>413</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="B18" t="s">
         <v>70</v>
@@ -12043,12 +12890,12 @@
         <v>14</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>428</v>
+        <v>415</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>429</v>
+        <v>416</v>
       </c>
       <c r="B19" t="s">
         <v>70</v>
@@ -12057,12 +12904,12 @@
         <v>14</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>430</v>
+        <v>417</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>431</v>
+        <v>418</v>
       </c>
       <c r="B20" t="s">
         <v>70</v>
@@ -12071,12 +12918,12 @@
         <v>14</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>432</v>
+        <v>419</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>433</v>
+        <v>420</v>
       </c>
       <c r="B21" t="s">
         <v>70</v>
@@ -12085,7 +12932,7 @@
         <v>14</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -12096,10 +12943,10 @@
         <v>23</v>
       </c>
       <c r="D22" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -12110,15 +12957,15 @@
         <v>6</v>
       </c>
       <c r="D23" t="s">
-        <v>437</v>
+        <v>424</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>438</v>
+        <v>425</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
       <c r="B24" t="s">
         <v>13</v>
@@ -12127,7 +12974,7 @@
         <v>14</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>440</v>
+        <v>427</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -12141,12 +12988,12 @@
         <v>362</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>441</v>
+        <v>428</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>442</v>
+        <v>429</v>
       </c>
       <c r="B26" t="s">
         <v>70</v>
@@ -12155,7 +13002,7 @@
         <v>14</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -12166,10 +13013,10 @@
         <v>6</v>
       </c>
       <c r="D27" t="s">
-        <v>444</v>
+        <v>431</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>445</v>
+        <v>432</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -12180,10 +13027,10 @@
         <v>6</v>
       </c>
       <c r="D28" t="s">
-        <v>446</v>
+        <v>433</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>447</v>
+        <v>434</v>
       </c>
     </row>
   </sheetData>
@@ -12221,7 +13068,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E37"/>
   <sheetViews>
@@ -12248,16 +13095,16 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
       <c r="B2" t="s">
         <v>45</v>
       </c>
       <c r="D2" t="s">
-        <v>449</v>
+        <v>436</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>450</v>
+        <v>437</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -12268,10 +13115,10 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>451</v>
+        <v>438</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>452</v>
+        <v>439</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -12282,15 +13129,15 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>453</v>
+        <v>440</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="B5" t="s">
         <v>70</v>
@@ -12299,12 +13146,12 @@
         <v>14</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
@@ -12313,7 +13160,7 @@
         <v>14</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -12324,10 +13171,10 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -12338,12 +13185,12 @@
         <v>6</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>460</v>
+        <v>447</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>405</v>
+        <v>392</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
@@ -12352,12 +13199,12 @@
         <v>14</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
@@ -12366,12 +13213,12 @@
         <v>14</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>433</v>
+        <v>420</v>
       </c>
       <c r="B11" t="s">
         <v>70</v>
@@ -12380,12 +13227,12 @@
         <v>14</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="B12" t="s">
         <v>70</v>
@@ -12394,12 +13241,12 @@
         <v>14</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="B13" t="s">
         <v>70</v>
@@ -12408,12 +13255,12 @@
         <v>14</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
       <c r="B14" t="s">
         <v>70</v>
@@ -12422,12 +13269,12 @@
         <v>14</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>471</v>
+        <v>458</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
@@ -12436,12 +13283,12 @@
         <v>14</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>472</v>
+        <v>459</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="B16" t="s">
         <v>45</v>
@@ -12450,12 +13297,12 @@
         <v>68</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>474</v>
+        <v>461</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>475</v>
+        <v>462</v>
       </c>
       <c r="B17" t="s">
         <v>70</v>
@@ -12464,12 +13311,12 @@
         <v>14</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>476</v>
+        <v>463</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>477</v>
+        <v>464</v>
       </c>
       <c r="B18" t="s">
         <v>70</v>
@@ -12478,12 +13325,12 @@
         <v>14</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>478</v>
+        <v>465</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
       <c r="B19" t="s">
         <v>70</v>
@@ -12492,12 +13339,12 @@
         <v>14</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>480</v>
+        <v>467</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
       <c r="B20" t="s">
         <v>70</v>
@@ -12506,12 +13353,12 @@
         <v>14</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>482</v>
+        <v>469</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>483</v>
+        <v>470</v>
       </c>
       <c r="B21" t="s">
         <v>70</v>
@@ -12520,12 +13367,12 @@
         <v>14</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>484</v>
+        <v>471</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>485</v>
+        <v>472</v>
       </c>
       <c r="B22" t="s">
         <v>70</v>
@@ -12534,26 +13381,26 @@
         <v>14</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>486</v>
+        <v>473</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="B23" t="s">
         <v>6</v>
       </c>
       <c r="D23" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>489</v>
+        <v>476</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>490</v>
+        <v>477</v>
       </c>
       <c r="B24" t="s">
         <v>70</v>
@@ -12562,7 +13409,7 @@
         <v>14</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>491</v>
+        <v>478</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -12576,12 +13423,12 @@
         <v>103</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>492</v>
+        <v>479</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>493</v>
+        <v>480</v>
       </c>
       <c r="B26" t="s">
         <v>70</v>
@@ -12590,7 +13437,7 @@
         <v>14</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>494</v>
+        <v>481</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -12601,10 +13448,10 @@
         <v>6</v>
       </c>
       <c r="D27" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>495</v>
+        <v>482</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -12618,12 +13465,12 @@
         <v>14</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>496</v>
+        <v>483</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>497</v>
+        <v>484</v>
       </c>
       <c r="B29" t="s">
         <v>70</v>
@@ -12632,12 +13479,12 @@
         <v>14</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>498</v>
+        <v>485</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
       <c r="B30" t="s">
         <v>13</v>
@@ -12646,7 +13493,7 @@
         <v>14</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>499</v>
+        <v>486</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -12660,12 +13507,12 @@
         <v>362</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>500</v>
+        <v>487</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="B32" t="s">
         <v>70</v>
@@ -12674,12 +13521,12 @@
         <v>14</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>502</v>
+        <v>489</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>442</v>
+        <v>429</v>
       </c>
       <c r="B33" t="s">
         <v>220</v>
@@ -12688,12 +13535,12 @@
         <v>221</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>503</v>
+        <v>490</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>504</v>
+        <v>491</v>
       </c>
       <c r="B34" t="s">
         <v>70</v>
@@ -12702,12 +13549,12 @@
         <v>14</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>505</v>
+        <v>492</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>506</v>
+        <v>493</v>
       </c>
       <c r="B35" t="s">
         <v>70</v>
@@ -12716,7 +13563,7 @@
         <v>14</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>507</v>
+        <v>494</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -12727,10 +13574,10 @@
         <v>6</v>
       </c>
       <c r="D36" t="s">
-        <v>508</v>
+        <v>495</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>509</v>
+        <v>496</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -12741,10 +13588,10 @@
         <v>6</v>
       </c>
       <c r="D37" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>511</v>
+        <v>498</v>
       </c>
     </row>
   </sheetData>
@@ -12789,439 +13636,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E28"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>514</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>516</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>518</v>
-      </c>
-      <c r="B5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>520</v>
-      </c>
-      <c r="B6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>523</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>462</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>526</v>
-      </c>
-      <c r="B10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>528</v>
-      </c>
-      <c r="B11" t="s">
-        <v>70</v>
-      </c>
-      <c r="D11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>530</v>
-      </c>
-      <c r="B12" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" t="s">
-        <v>68</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>532</v>
-      </c>
-      <c r="B13" t="s">
-        <v>70</v>
-      </c>
-      <c r="D13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>534</v>
-      </c>
-      <c r="B14" t="s">
-        <v>70</v>
-      </c>
-      <c r="D14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>536</v>
-      </c>
-      <c r="B15" t="s">
-        <v>70</v>
-      </c>
-      <c r="D15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>538</v>
-      </c>
-      <c r="B16" t="s">
-        <v>70</v>
-      </c>
-      <c r="D16" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>540</v>
-      </c>
-      <c r="B17" t="s">
-        <v>70</v>
-      </c>
-      <c r="D17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>542</v>
-      </c>
-      <c r="B18" t="s">
-        <v>70</v>
-      </c>
-      <c r="D18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>544</v>
-      </c>
-      <c r="B19" t="s">
-        <v>70</v>
-      </c>
-      <c r="D19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>431</v>
-      </c>
-      <c r="B20" t="s">
-        <v>70</v>
-      </c>
-      <c r="D20" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>433</v>
-      </c>
-      <c r="B21" t="s">
-        <v>70</v>
-      </c>
-      <c r="D21" t="s">
-        <v>14</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" t="s">
-        <v>23</v>
-      </c>
-      <c r="D22" t="s">
-        <v>103</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" t="s">
-        <v>516</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" t="s">
-        <v>362</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>47</v>
-      </c>
-      <c r="B25" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" t="s">
-        <v>551</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>553</v>
-      </c>
-      <c r="B26" t="s">
-        <v>45</v>
-      </c>
-      <c r="D26" t="s">
-        <v>68</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>48</v>
-      </c>
-      <c r="B27" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" t="s">
-        <v>555</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>557</v>
-      </c>
-      <c r="B28" t="s">
-        <v>70</v>
-      </c>
-      <c r="D28" t="s">
-        <v>14</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>558</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="E2" r:id="rId2"/>
-    <hyperlink ref="E3" r:id="rId3"/>
-    <hyperlink ref="E4" r:id="rId4"/>
-    <hyperlink ref="E5" r:id="rId5"/>
-    <hyperlink ref="E6" r:id="rId6"/>
-    <hyperlink ref="E7" r:id="rId7"/>
-    <hyperlink ref="E8" r:id="rId8"/>
-    <hyperlink ref="E9" r:id="rId9"/>
-    <hyperlink ref="E10" r:id="rId10"/>
-    <hyperlink ref="E11" r:id="rId11"/>
-    <hyperlink ref="E12" r:id="rId12"/>
-    <hyperlink ref="E13" r:id="rId13"/>
-    <hyperlink ref="E14" r:id="rId14"/>
-    <hyperlink ref="E15" r:id="rId15"/>
-    <hyperlink ref="E16" r:id="rId16"/>
-    <hyperlink ref="E17" r:id="rId17"/>
-    <hyperlink ref="E18" r:id="rId18"/>
-    <hyperlink ref="E19" r:id="rId19"/>
-    <hyperlink ref="E20" r:id="rId20"/>
-    <hyperlink ref="E21" r:id="rId21"/>
-    <hyperlink ref="E22" r:id="rId22"/>
-    <hyperlink ref="E23" r:id="rId23"/>
-    <hyperlink ref="E24" r:id="rId24"/>
-    <hyperlink ref="E25" r:id="rId25"/>
-    <hyperlink ref="E26" r:id="rId26"/>
-    <hyperlink ref="E27" r:id="rId27"/>
-    <hyperlink ref="E28" r:id="rId28"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>